--- a/data_dir/Баллы и прочая хрень1.xlsx
+++ b/data_dir/Баллы и прочая хрень1.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Валера\PycharmProjects\SchoolWeb\data_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7758B-A9E2-4BC7-91BF-358F7048369F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E38ABD-74F4-4148-A69F-E256ACB68981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2850" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2130" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$V$71</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="595">
   <si>
     <t>Специальность</t>
   </si>
@@ -192,9 +195,6 @@
 </t>
   </si>
   <si>
-    <t>Строительство уникальных зданий и сооружений (с)</t>
-  </si>
-  <si>
     <t>Информационные системы и технологии</t>
   </si>
   <si>
@@ -248,9 +248,6 @@
 Или информатика,
 Русский язык 
 </t>
-  </si>
-  <si>
-    <t>Компьютерная безопасность (с)</t>
   </si>
   <si>
     <t>Математика (проф.),
@@ -668,9 +665,6 @@
     <t>Фундаментальная и прикладная лингвистика</t>
   </si>
   <si>
-    <t>Перевод и переводоведение (с)</t>
-  </si>
-  <si>
     <t>45.03.09</t>
   </si>
   <si>
@@ -790,9 +784,6 @@
     <t>Школа биомедицины</t>
   </si>
   <si>
-    <t>Фармация</t>
-  </si>
-  <si>
     <t>33.05.01</t>
   </si>
   <si>
@@ -842,9 +833,6 @@
   </si>
   <si>
     <t>https://bb.dvfu.ru/bbcswebdav/orgs/FUDOOD/19/ШБМ/Спец..</t>
-  </si>
-  <si>
-    <t>Медицинская биохимия</t>
   </si>
   <si>
     <t>Медицинская биохимия - широкая специальность, включающая в себя всё, начиная с вирусов и бактерий и заканчивая физиологическим строением тела человека. Специалисты в области биохимии проводят различные лабораторные исследования, принимают участие в разработках препаратов, изучают их влияние на организм животных и человека.</t>
@@ -917,12 +905,6 @@
     <t>pk</t>
   </si>
   <si>
-    <t>Медицинская биофизика</t>
-  </si>
-  <si>
-    <t>Лечебное дело</t>
-  </si>
-  <si>
     <t>Международное ресторанное дело</t>
   </si>
   <si>
@@ -969,9 +951,6 @@
   </si>
   <si>
     <t>05.03.02</t>
-  </si>
-  <si>
-    <t>Экономическая безопасность</t>
   </si>
   <si>
     <t xml:space="preserve">173,
@@ -1512,11 +1491,6 @@
 Введение в языкознание (европейские языки)</t>
   </si>
   <si>
-    <t>Фундаментальная и прикладная лингвистика$
-Перевод и Переводоведение$
-Филология (иностранный язык)$</t>
-  </si>
-  <si>
     <t xml:space="preserve">В программе направление студентам предоставляется возможность изучения языка английского и дополнительного, завистит от выбранного профиля: перевод и переводоведение( французский\ немецкий\испанский); межкультурная коммуникация(китайский). Во время обучения студенты практикуют синхронный первод. Благодаря хорошей языковой подготовке, начиная со второго курса, студенты активно участвуют в научной жизни университета и в течение одного семестра могут пройти обучение в зарубежных вузах-партнерах </t>
   </si>
   <si>
@@ -1813,6 +1787,1427 @@
 Перевод и переводоведение$
 Филология (иностранный язык)$</t>
   </si>
+  <si>
+    <t xml:space="preserve">В Юридической школе ДВФУ обучающийся может получить профильные знания не только по общим отраслям права: гражданское, административное, уголовное, но и специальным: международное морское право, муниципальное и избирательное право, государственное право стран АТР, право в информационно-медийном обществе, сравнительное государствоведение и по многим другим.
+Студент ЮШ ДВФУ приобретает во время обучения навыки и умения, которые в дальнейшем помогут в карьерном росте: навык судебной речи, юридического письма, юридической логики, работа с правовыми базами данных , многозадачность и планирование, навык публичных выступлений и работа в команде.
+Преимущества обучения в ЮШ ДВФУ:
+Высококвалифицированный преподавательский состав;
+Студенты имеют возможность получать знания от практикующих юристов, судей Конституционного суда Российской Федерации, судов общей юрисдикции, а также кандидатов и докторов юридических наук.
+Криминалистическая лаборатория
+Студенты имеют возможность применить полученные теоретические знания в оборудованной лаборатории криминалистики и на криминалистическом полигоне.
+Доступ к правовым базам данных
+Студентам предоставлена возможность свободного доступа к специализированным справочно-правовым системам, а также электронной библиотеке с большими подборками полнотекстовых электронных изданий, что делает процесс написание научных статей, курсовых и других работ проще, быстрее и интереснее. </t>
+  </si>
+  <si>
+    <t>Судебные органы $  Правоохранительные органы $ Органы государственной власти  $ Отраслевые российские и международные партнеры $
+Международные организации $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Государственные, судебные и правоохранительные органы в Приморском крае сформированы преимущественно из выпускников Юридической школы, коорые успешно продвигаются по карьерной лестнице за счет полученного образования.
+Образование полученное в Юридической школе является конкурентоспособным и преимущественным не только на территории Российской Федерации, но в Азиатско-тихоокеанском регионе мира </t>
+  </si>
+  <si>
+    <t>1. Студенты в процессе обучения проходят производственную и учебную практику на основании договоров о сотрудничестве в правоохранительных органах и государственных структурах. В результате прохождения практик студент приобретает профессиональные компетенции: способность применять нормативно-правовые акты, юридически правильно квалифицировать факты и обстоятельства, владеть навыками подготовки юридических документов и др. $ 2. Ежегодно на базе профильных кафедр совместно с представителями различных правоохранительных органов, государственных структур, общественных объединений и организаций проводятся мероприятия по исследованию отдельных правовых проблем, имеющих теоретическое и прикладное значение. $</t>
+  </si>
+  <si>
+    <t>Поддержка талантливых студентов 
+Студенты – высокобалльники могут претендовать на грантовые программы, оплачиваемые поездки за рубеж, а также на формирование индивидуальной образовательной траектории для максимального развития своего потенциала</t>
+  </si>
+  <si>
+    <t>Сотрудничество с выдающимися ВУЗ-ами страны и мира
+Студентам предоставлена возможность обмениваться опытом с партнерами из Московского государственного университета им. М.В. Ломоносова, Московского государственного юридического университета им. О,Е, Кутафина, Санкт – Петербургского государственного университета, Уральской Государственной Юридической академии, а также зарубежными партнерами из Китая, Кореи, США и Японии.</t>
+  </si>
+  <si>
+    <t>1. Прокуратура Приморского края, Приморский краевой суд, Следственное Управление Следственного комитета Российской Федерации по Приморскому краю, Управление Министерства юстиции Российской Федерации по Приморскому краю, Адвокатская палата Приморского края, Приморская краевая нотариальная палата, Управление Федеральной антимонопольной службы по Приморскому краю, Избирательная комиссия Приморского края и прочие $
+2. Отраслевые партнеры: НАДО НАПИСАТЬ КОМПАНИИ</t>
+  </si>
+  <si>
+    <t>теория государства и права $
+гражданское право $
+уголовное право $
+административное право $
+конституционное право $
+процессуальное право $
+международное право и другие $</t>
+  </si>
+  <si>
+    <t>1. Программа обмена
+ДВФУ предлагает своим студентам возможность пройти семестровое или годичное обучение без получения степени в одном из вузов-партнеров. Обменная программа предполагает бесплатное обучение. Реализация программ академического обмена осуществляется на конкурсной основе. К кандидатам в программу обмена предъявляются следующие требования: 1) хорошая успеваемость; 2) определенный уровень знания иностранного языка, на котором проводится обучение в заграничном вузе; 3) студенты очной формы обучения, кроме студентов-выпускников. Студент освобождается только от оплаты за обучение в принимающем университете, все остальные расходы студент несет самостоятельно: - почтовые расходы (отправка документов в принимающий университет службой UPS); - визовые расходы; - медицинская страховка; - транспортные расходы; - проживание, питание и прочие расходы в принимающем университете; - иные расходы. Вот некоторые университеты, которые предоставляют программы обмена для студентов ЮШ: Китайский государственный университет политики и права Национальный тайваньский университет. Юридический колледж Европейский университет Виадрина Сеульский национальный университет Осакский университет экономики и права Висконсинский университет в Мадисоне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://onedrive.live.com/view.aspx?resid=76484D2112C8971C!1021&amp;ithint=file%2cxlsx&amp;authkey=!ACxigyfoXgvL4Is</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Богатство русского языка и созданной на нем литературы вызывает интерес к этому языку во всем мире. В школах и вузах многих стран русский язык изучается в качестве  обязательного иностранного языка. Учиться по этой программе могут как иностранцы, так и русские студенты (носители языка). 
+В процессе обучения студенты глубоко </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> изучают научные основы русского языка;
+  усваивают нормы русского литературного языка;
+  совершенствуют свои коммуникативно-речевые навыки, в том числе и навыки публичного выступления на научных конференциях разного уровня; 
+ знакомятся с культурным наследием нашей страны </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">литературой, живописью, музыкой и др.) как на учебных  занятиях, так и во внеаудиторной работе. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Образовательные учреждения$ 
+Организации дополнительного образования                                           Курсы русского языка для иностранцев в России и за рубежом. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Овладевая методикой преподавания русского языка как иностранного, студенты приобретают профессионально значимые умения и навыки, необходимые им в работе с иностранными обучаемыми. </t>
+  </si>
+  <si>
+    <t>Педагогическая практика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Педагогическую практику студенты проходят в группах иностранцев, изучающих русский язык на курсах в Школе педагоги ДВФУ Вместе с руководителем практики студенты (в том числе и иностранные) посещают уроки русского языка в школе, проводят внеклассные мероприятия с детьми. Есть возможность   проходить  педагогическую  практику в школах за рубежом. </t>
+  </si>
+  <si>
+    <t>Стажировка в школах за рубежом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Студенты вместе с преподавателями участвуют в организации мероприятий, в проведении занятий с иностранцами (школьниками, студентами),  приезжающими в Школу педагогики в составе делегаций. </t>
+  </si>
+  <si>
+    <r>
+      <t>лингвострановедение  э</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тнолингвистика,  русский фольклор          история русской литературы и культуры педагогическая риторика  стилистика         методика обучения русскому языку как иностранному</t>
+    </r>
+  </si>
+  <si>
+    <t>Общеобразовательные организации$
+Средние профессиональные учебные заведения$
+Научно-исследовательские организации$
+Сфера государственного и муниципального управления</t>
+  </si>
+  <si>
+    <t>Образовательные учреждения$ 
+Организации дополнительного образования$
+Ведущие российские или зарубежные компание в сфере бизнеса, экономики и финансов</t>
+  </si>
+  <si>
+    <t>Государственные и частные образовательные организации разного уровня$
+Органы управления образованием$
+Музеи, архивы, учреждения культуры$
+Органы государственного и муниципального управления, силовые структуры$
+Туристические компании$
+Средства массовой информации</t>
+  </si>
+  <si>
+    <t>Учебная практика$
+Производственная практика</t>
+  </si>
+  <si>
+    <t>Стажировка в зарубежных образовательных организациях</t>
+  </si>
+  <si>
+    <t>Образовательные учреждения$ 
+Организации дополнительного образования</t>
+  </si>
+  <si>
+    <t>Фундаментальная и прикладная лингвистика$
+Перевод и переводоведение$
+Филология (иностранный язык)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматизация технологических процессов и производств - специальность, позволяющая заниматься созданием современных аппаратно-технических и программных средств, которые могут проектировать, исследовать, проводить техническое диагностирование и промышленные испытания. Владея такой специальностью ты сможешь создавать современные системы управления. </t>
+  </si>
+  <si>
+    <t>В обязанности архитектора входит решение как творческих, так и технических задач: разработка проекта здания, оформление документации, планирование работ по благоустройству.
+Женской профессией в строительстве архитектура считается, т. к. не требует применения физической силы или досконального изучения сугубо технических аспектов. Это хорошая возможность реализовать себя и свои творческие амбиции.</t>
+  </si>
+  <si>
+    <t>Где вы сейчас находитесь? Возможно, сидите за компьютером в рабочем офисе, расположились с планшетом дома на диване или читаете статью в кафе за чашечкой чая. Вам комфортно находиться в этом месте? Удобно было сюда добраться? Приятно смотреть вокруг?
+Все это зависит от дизайнера архитектурной среды, который проектирует помещения, планирует интерьеры, разрабатывает навигацию и объединяет красоту вашего окружения с функциональностью.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Специальность "землеустройство и кадастры" - что это такое? Землеустройство - это комплекс мероприятий, которые позволяют регулировать земельные отношения, изучать информацию о состоянии земель, планировать и организовывать использование их таким образом, чтобы они минимально воздействовали на ресурсы, при этом приносили максимальную прибыль. В рамках данной работы проводится охрана земель, создаются новые землепользования, упорядочиваются существующие угодья, выносятся границы между участками, обустраиваются сельскохозяйственные территории, улучшаются ландшафты и многое другое. Кадастр земли - это свод информации о границах, использовании, целевом назначении, правовом режиме земельных участков. Эти данные собираются в процессе кадастрового учета, оформления правоустанавливающих документов. Таким образом, это направление включает в себя работу и с бумагами, и с приборами, и с землей. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конечная цель каждого направления исследований – применение достигнутого результата. Прикладная наука, разрабатывая уникальные технологии или изобретая новые способы управления силами природы, ориентируется на их практическое применение. Люди, выбравшие специальность «Инноватика», внедряют вновь полученные научные достижения в жизнь, развивают собственные бизнесы.
+</t>
+  </si>
+  <si>
+    <t>Студенты изучают начертательную геометрию, инженерную графику, технологию судостроения, проектирование судов, судостроительное черчение. Выпускники работают на судоремонтных и судостроительных заводах, предприятиях нефтегазовой отрасли, в конструкторских бюро, в организациях, связанных с исследованием Мирового океана, НИИ дизелестроения, судостроения, морском пароходстве, предприятиях рыбного хозяйства, Морском Регистре.</t>
+  </si>
+  <si>
+    <t>Машины играют большую роль во всех сферах жизни. А значит, с каждым годом все больше востребованы специалисты, которые могут их конструировать, производить, обслуживать и ремонтировать. В зависимости от того, для каких целей предназначена техника, выделяются специализации машиностроения: авиационное, автомобильное, судостроение, энергетическое, станкостроение, сельскохозяйственное и др. Все их объединяет одно – конечным продуктом является механизм, призванный автоматизировать определенные процессы. При этом затраты энергии человека снижаются, сам процесс ускоряется, а результаты становятся качественнее. Чтобы строить и читать чертежи специалисты должны обладать хорошим пространственным мышлением. Также им требуются знания по физике и геометрии, знакомство с материалами и их свойствами.</t>
+  </si>
+  <si>
+    <t>Студенты изучают как классические для инженерного направления предметы, так и ряд профильных дисциплин: электронные устройства мехатронных и робототехнических систем, теория автоматического управления, детали мехатронных модулей, роботов и их конструирование, микропроцессорная техника в мехатронике и робототехнике, программное обеспечение мехатронных и робототехнических систем, промышленные роботы и робототехнологические комплексы и ряд других дисциплин. Выпускники успешно трудоустраиваются в организациях, проектирующих и сопровождающих современные автоматизированные системы; организациях, занимающихся наладкой и обслуживанием мехатронных систем различного назначения, систем управления и автоматики, систем безопасности; институтах академии наук; научно-исследовательских и проектно-конструкторских институтах; учебных заведениях.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Давно никто не отрицает тот факт, что самой прибыльной и актуальной сферой на территории Российской Федерации является нефтегазовое дело. Что за профессия здесь выделяется? Несмотря на широкое разнообразие самых различных специальностей, квалификаций и разрядов, практически любой работник, осуществляющий свою деятельность в нефтегазовой промышленности, именуется технологом-нефтяником. Надо сказать, что данная профессия невероятно популярна среди абитуриентов. Привлекает и высокая заработная плата, и качественные перспективы карьерного роста. Не стоит забывать и про постоянные научные разработки, позволяющие регулярно повышать свой профессиональный уровень. </t>
+  </si>
+  <si>
+    <t>Геодезисты или инженеры – геодезисты занимаются топографическим и геодезическим сопровождением научных исследований, инженерными решениями в сфере освоения ресурсной базы страны, решением землеустроительных и кадастровых проблем, геодезической разбивкой и формированием опорных сетей, проведением работ изыскательского и геодезического характера для обеспечения строительно – монтажных процессов, геодезической съёмкой территорий и объектов, контролем деформационных процессов на сооружениях и зданиях.</t>
+  </si>
+  <si>
+    <t>Строительство – актуальная отрасль
+инженерной деятельности, основной
+задачей которой является возведение
+жилья, промышленных объектов, зданий и
+сооружений социальной сферы обслужива-
+ния, инженерных сетей и коммуникаций,
+объектов обеспечения жизнедеятельнос-
+ти человека и так далее.
+Преимущество выпускников направле-
+ния «Строительство» - это широкие
+возможности трудоустройства в даль-
+нейшей профессиональной деятельности:
+от организации строительства малоэ-
+тажных зданий до работы на современных
+крупных объектах - это участие в строи-
+тельстве нефтяных платформ на шельфе
+Дальнего Востока, а также, возведение сооружений
+для нужд народного хозяйства.
+Область профессиональной деятельности:
+строительство и жилищно-коммунальное
+хозяйство: в сфере инженерных изысканий
+для строительства; в сфере проектирова-
+ния, строительства и оснащения объектов
+капитального строительства и жилищно-
+коммунального хозяйства; в сфере техни-
+ческой эксплуатации, ремонта, демонтажа и
+реконструкции зданий, сооружений, объек-
+тов жилищно-коммунального хозяйства; в
+сфере производства и применения строи-
+тельных материалов, изделий и конструкций.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженеры-строители данного направления специализируются на сборе предпроектной информации. Они изучают будущую территорию застройки или уникальное сооружение, требующее реконструкции. С использованием графических и прикладных расчетных программных средств можно создавать не имеющие аналогов здания (или их части). Все для надежного строительства уникальных зданий и сооружений. </t>
+  </si>
+  <si>
+    <t>В соответствии с принципами логистики специалисты организуют рациональное взаимодействие видов транспорта, составляющих единую транспортную систему. Студенты изучают информационные технологии на транспорте, моделирование транспортных процессов, организацию транспортных услуг и безопасность транспортного процесса, технику транспорта, обслуживание и ремонт, транспортную инфраструктуру, транспортную логистику, транспортную психологию, транспортную энергетику. Выпускники могут работать на транспортных предприятиях различной направленности – пассажирских, грузовых, осуществляющих погрузочно-разгрузочные работы.</t>
+  </si>
+  <si>
+    <t>Направление предусматривает большое количество профилей, когда-то бывших самостоятельными специальностями. Поэтому количество общих для всех студентов дисциплин невелико: большая часть учебного времени отводится на профильные предметы. В базовую подготовку электроэнергетиков входят такие курсы, как теоретические основы электротехники, электротехническое и конструкционное материаловедение, общая энергетика, электрические машины, безопасность жизнедеятельности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERP-консультант$
+Горный инженер$
+Горный мастер$
+Инженер пищевой промышленности$
+Инженер по 3D печати
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERP-консультант (консультант по внедрению ERP-систем) – занимается внедрением и наладкой систем планирования предприятия. ERP-система (Enterprise Resource Planning) – это комплекс приложений, который позволяет автоматизировать учет и управление на предприятии, связать между собой его разные отделы</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                 Горный инженер занимается проектированием и строительством шахт различного назначения. В большинстве случаев это подземные сооружения для добычи полезных ископаемых или подземные транспортные коммуникации. В зависимости от специализации горный инженер может заниматься проектно-изыскательскими работами или обеспечивать техническое сопровождение при строительстве и эксплуатации различных шахт.$                                                Горный мастер – это специалист с высшим образованием, задачей которого является планирование, организация и управление горными работами.$                                                 Инженер пищевой промышленности занимается проектированием и обеспечением надлежащей эксплуатации технологического оборудования предприятий пищевой промышленности. Для устройства на работу необходимо высшее профессиональное образование, знание техники. Специалист должен иметь технический склад ума, обладать коммуникабельностью, ответственностью, внимательностью, быстрой реакцией и хорошими организаторскими способностями.$                                                                             Инженер по 3D печати - специалист по технологии 3D-печати. В его обязанности входит разработка технологии, программного обеспечения и оборудования для 3D печати и сопровождение реализации самого процесса печати. Он все знает о различных технологиях 3D печати, сам может сделать дизайн и разработать 3D-модель, безупречно знает материалы и оборудование, умеет применять свои знания в различных сферах: медицине, космонавтике, производстве готовой продукции и прототипировании, строительстве и др.$  
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1 курс – учебно-ознакомительная практика$
+2 курс – Практика по получению первичных профессиональных умений и навыков, в том числе первичных умений и навыков научно-исследовательской деятельности$
+3 курс – Практика по получению профессиональных умений и опыта профессиональной деятельности$
+4 курс – Научная исследовательская работа и преддипломная практика</t>
+  </si>
+  <si>
+    <t>1. На первой учебной практике проходит экскурсия по аудиториям университета, в которых будет проходить дальнейшее обучение (если практика проходит на кафедре). Возможен выезд на предприятие, где также для студентов проведут экскурсию. Длится она две недели. По окончании практики пишется отчет по проделанной работе.$
+2. На второй учебной практике отправляют на предприятие. Выдают путевки, и студенты отправляются на указанный адрес. На ней студенты знакомятся с принципами работы с деловой документацией, обязанностями, которые выполняет специалист их будущей профессии. По окончании практики пишется отчет по проделанной работе.$
+3. На третьем курсе студенты проходят производственную практику. Также выдаются путевки и адреса предприятий. Тут вы можете вживую увидеть, в чем заключается суть будущей профессии, посмотреть на производство изнутри и сами в нем принять участие. Большую часть работы вы выполняете самостоятельно, но под присмотром специалистов. По окончании практики пишется отчет по проделанной работе.$
+4. На 4 курсе практика направлена на выявление и оценку сформированности профессиональных умений и опыта профессиональной деятельности выпускника, а также на овладение методами исследования и приемами ведения научно-исследовательской работы, необходимых для выполнения выпускной квалификационной (бакалаврской) работы. Преддипломная практика состоит из поиска, компоновки и анализа материала, который впоследствии будет использован в дипломной работе. Отчетом выступает реферат.</t>
+  </si>
+  <si>
+    <t>Архитектор$
+Архитектор ландшафтов$
+Архитектор-градостроитель$
+Архитектор-реставратор$
+Дизайнер городской среды$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архитектор — специалист по проектированию и сооружению зданий. Это инженер, программист и художник в одном лице. Люди этой профессии мечтают возводить дворцы, а в реальной жизни проектируют магазины и жилые дома$.                                                 Ландшафтный архитектор – это инженерно-художественная профессия, позволяющая активно преобразовывать окружающий мир. Подойдет тем, кто хочет создавать функциональную красоту. Ландшафтный архитектор занимается проектированием свободных пространств, на территории которых размещаются или планируются к размещению зеленые насаждения. $         Архитектор-градостроитель – проектирует городские районы или крупные комплексы, ведет разработку градостроительной документации и генеральных планов населенных пунктов; реставратор архитектуры – возрождают архитектурные памятники; главный архитектор города или района – государственный служащий, который разрабатывает местную нормативно-правовую документацию и контролирует ее исполнение по части градостроительства;$                                         Архитектор-реставратор занимается восстанавлением памятников архитектуры: изучает архивные материалы, составляет проект, воссоздающий общий вид здания; принимает участие в самих реставрационных работах; участвует в решении вопроса об использовании отреставрированного здания$.                                            Дизайнер городской среды – это специалист, осуществляющий комплексное формирование дизайна пространств общественного пользования, создавая комфорт, удобство и красоту города.            </t>
+  </si>
+  <si>
+    <t>Архитектор$   дизайнер$        инженер-проектировщик$   Дизайнер городской среды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архитектор — специалист по проектированию и сооружению зданий. Это инженер, программист и художник в одном лице. Люди этой профессии мечтают возводить дворцы, а в реальной жизни проектируют магазины и жилые дома$.                                                  Профессия дизайнер предназначена для разработки конструкций и создания визуальных изображений моделей мебели, одежды, аксессуаров, посуды, бытовой техники. Предусмотрены специализации дизайнеров ландшафтов, интерьера, рекламы, компьютерной графики и т.д.  $              Инженер-проектировщик – это специалист, в обязанности которого входит работа над архитекторскими чертежами и планами различных конструкций. Именно проектировщики занимаются разработкой схем расположенных в зданиях систем водоснабжения, канализации, электричества, а также пожарной безопасности.$                                                               Дизайнер городской среды – это специалист, осуществляющий комплексное формирование дизайна пространств общественного пользования, создавая комфорт, удобство и красоту города.                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Геодезист, специалист по геодезии$
+Девелопер$
+Инженер городского кадастра$
+Инженер по землеустройству$
+Инженер по кадастру$</t>
+  </si>
+  <si>
+    <t>Геодезист – специалист по составлению карт местности, проведению расчётов, необходимых для описания рельефа местности. Профессия инженера-геодезиста незаменима в строительстве. Такие специалисты сопровождают строительные работы с момента определения участка под застройку и до самого ввода объекта в эксплуатацию. Геодезисты вычерчивают топографический план местности, фиксируют на картах все стадии застройки, а по завершении строительства создают исполнительный генеральный план, на котором отражены все возведенные объекты и коммуникации.$                                                                        Девелопер – это одна из специализаций профессионала по операциям с недвижимостью (риэлтера). Девелопер профессионально управляет недвижимостью с целью ее максимально эффективной эксплуатации, увеличения стоимости объекта и получения дохода.
+Девелопер заказывает проект, покупает или берет в аренду участок земли, "привязывает" проект к участку, согласовывает подведение всех коммуникаций, строит объект - например, большое офисное здание. Затем он может сдать в аренду или отдельные офисы, или здание целиком. А может продать принадлежащую ему недвижимость. $          Инженер городского кадастра является сотрудником местных органов власти или уполномоченной коммерческой организации. Он занимается регистрационными действиями с различными объектами городского хозяйства, обследованием и учетом инженерной городской инфраструктуры, оформлением и выдачей документов на недвижимость и земельные участки.$                                           На сельскохозяйственных предприятиях организует работу по наиболее полному и эффективному использованию земель, повышению культуры земледелия. Контролирует соблюдение земельного законодательства, внедряет проекты внутрихозяйственного землеустройства, осуществляет выполнение предусмотренных в них мероприятий по повышению плодородия почвы (осушение, орошение, противоэрозионные мероприятия), освоению новых земель и отведению площадей под хозяйственные объекты, многолетние культурные пастбища, сады, ягодники, лесозащитные насаждения, следит за своевременным и качественным выполнением рекультивации земель, соблюдением установленного порядка в приусадебном землепользовании, выделением участков для выпаса скота. Ведет землекадастровую книгу хозяйства и книгу истории полей.$                                                                                            Организует работу по эффективному использованию земель, контролирует соблюдение земельного законодательства; внедряет проекты землеустройства и освоения новых земель; ведет кадастровые книги; дает заключение об использования территории.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D-моделлер$
+ICO аналитик$
+Аналитик деловой (конкурентной) разведки$
+Аналитик фондового рынка$
+Бизнес-аналитик (специалист по бизнес-процессам)$
+Дизайнер-визуализатор (дизайнер 3D)$
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D-моделлер – это профессия в области 3D-дизайна, востребованная в создании игр, фильмов, рекламы, в креативных индустриях, в создании предметов декора и мебели, различной техники.$                                                              ICO аналитик это специалист, который наблюдает за криптовалютными рынками и биржами, прогнозирует изменения рынка ICO и криптовалют, оценивает эффективности криптоинвестиций и строит прогнозы развития блокчейн-экономики.$                                        Аналитик деловой разведки занимается обеспечением комплексной безопасности бизнеса в современных условиях информационного противоборства, а также информационно-аналитической работой по исследованию конкурентов, новых технологий, которые могут быть использованы в конкретном бизнесе. Такие специалисты отвечают за сферу управления бизнесом при защите его от внешних рисков и угроз, должны уметь использовать в этих целях современные инструментальные средства, информационно-аналитические системы и технологии.$                                                        Проводит анализ рынка корпоративных ценных бумаг, фундаментальный анализ акционерных обществ, компаний, предприятий и государств, выпускающих ценные бумаги, обрабатывает статистические данные, дает рекомендации по ведению биржевой деятельности.$                                               Бизнес-аналитик (Business Analyst) — специалист, задачей которого является детальное изучение структуры, бизнес-процессов и системы управления компании, выявление проблем и поиск путей их успешного разрешения.$            Дизайнер-визуализатор (3D-дизайнер) занимается разработкой и оформлением 3D-объектов, которые используются в рекламе, в кино, на телевидении, при разработке компьютерных игр, в сайтостроении.
+Ом может работать также в сфере архитектуры и интерьерного дизайна, в области дизайна упаковки. Дизайнер-визуализатор разрабатывает проект и, помимо прочей документации и чертежей, предоставляет заказчику его визуализацию, выполненную с помощью трехмерных программ.$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженер по ядерной технике$
+Инженер-кораблестроитель (судостроитель)$
+Инженер-механик - исследователь$
+Инженер-прочнист$
+Менеджер по модернизации систем энергогенерации$
+Морской инженер$
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженер по ядерной технике занимается решением проблем обогащения ядерной энергии и эффективной утилизации радиоактивных отходов. Физики-ядерщики с физиками-атомщиками изучают строение атомов и ядер, часто результатами их трудов становятся революционные изобретения и открытия, например, адронный коллайдер или обнаружение бозона Хиггса.$                                                  Инженер-кораблестроитель занимается проектированием, конструированием и ремонтом морских и речных судов. Инженер-кораблестроитель конструирует промысловые и пассажирские суда, разрабатывает новые проекты, просчитывает усточивость судна на волнении. $                     Инженер-механик — специальность, которая включает в себя одновременно несколько профессий и требует от человека знаний и умений сразу в разных сферах. Инженер-механик может быть задействован в разных отраслях: авиация, производство, сельское хозяйство, транспорт и т.д. Работа инженера-механика представляет собой такие обязанности, как поддержание оборудования в рабочем состоянии, осуществление своевременного технического обслуживания, контроль производственных процессов и ремонта. $             Инженер-прочнист — специалист, в задачи которого входит проверка конструкции (деталей, узлов, агрегатов, машин, механизмов, изделий и пр.) на прочность, устойчивость, усталость, долговечность, живучесть, пулестойкость и ресурс. Также инженер-прочнист занимается динамическими расчетами (динамика, сейсмика зданий и сооружений).$ Менеджер по модернизации систем энергогенерации – это специалист, который занимается управлением модернизации электростанций: ТЭЦ, ГЭС, АЭС; а также внедряет инновационные методы обеспечения безопасности, эффективности и экологичности на производстве. Естественно оборудование стареет и изнашивается – это закон амортизации, поэтому в ближайшее время будет очень актуальна профессия менеджера по модернизации систем энергогенерации. Сейчас также существует похожая профессия, но такой специалист является скорее инженером общего спектра.$                                                                       Морской инженер – инженер, специализирующийся на построении кораблей, их инженерных узлов или на их обслуживании. Профессия подходит тем, кого интересует физика, математика и черчение (см. выбор профессии по интересу к школьным предметам).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3D-моделлер$  
+ERP-консультант$  
+Бизнес-консультант$  
+Дефектоскопист нефтепроводов$  
+Инженер по автоматизации (специалист по автоматизации)$  </t>
+  </si>
+  <si>
+    <t>3D-моделлер - это профессия в области 3D-дизайна, востребованная в создании игр, фильмов, рекламы, в креативных индустриях, в создании предметов декора и мебели, различной техники$                                                             ERP-консультант (консультант по внедрению ERP-систем) – занимается внедрением и наладкой систем планирования предприятия. ERP-система (Enterprise Resource Planning) – это комплекс приложений, который позволяет автоматизировать учет и управление на предприятии, связать между собой его разные отделы.$                                                                         Бизнес-консультант - это специалист, дающий грамотные и эффективные консультации предпринимателям или фирмам по вопросам ведения бизнеса.$                                                       Дефектоскописты регулярно проводят диагностику на трубопроводном парке предприятия, которая показывает, какие участки нуждаются в ремонте, какие - в реконструкции или замене. Они ставят диагноз нефтепроводам и водоводам. Ультразвуковой и радиографический контроль трубопроводов проводится регулярно, согласно графику, без вывода их из эксплуатации, то есть не нарушая и х физического состояния.$                                                               Чтобы улучшить качество продукции, сделать труд рабочих на производстве безопасным и высокопроизводительным, необходимо автоматизировать и механизировать производительные процессы. Перед этим инженер изучает спектр необходимых работ и проводит исследования. Составляет планы автоматизации и механизации производственных процессов, подъёмно-транспортных, погрузочно-разгрузочных и складских операций. Получает на рассмотрение эскизы и технические проекты, чертежи. Участвует в монтажных работах, наладке и сдаче в эксплуатацию средств автоматизации и механизации. Контролирует их обслуживание и следит, чтобы работа соответствовала критериям надёжности и качества.</t>
+  </si>
+  <si>
+    <t>Агроинформатик, агрокибернетик$
+Архитектор интеллектуальных систем управления беспилотного транспорта$
+Инженер по оборудованию$
+Инженер по рационализации и изобретательству$
+Инженер электронной техники</t>
+  </si>
+  <si>
+    <t>Агроинформатик - это специалист, который занимается информатизацией сельского хозяйства, создает специализированные информационные системы, направленные на анализ данных и прогнозирование эффективности использования природных ресурсов, осуществление информационной поддержки управления отраслями агропромышленного комплекса, разработку адаптивных почвосберегающих агротехнологий, оптимизацию применения средств химзащиты растений, агроэкологическую экспертизу.$                                                     Архитектор интеллектуальных систем управления – специалист, который занимается разработкой программного обеспечения для беспилотного транспорта и систем управления транспортными потоками.$                                    Инженер по обрудованию  - это специалист, отвечающий за правильную эксплуатацию оборудования, Своевременное техническое обслуживание и ремонт техники. Он востребован везде, где есть какая-либо техника, а сегодня без нее не обходится работа ни одного предприятия, ни коммунальный быт. Работать в этой профессии может человек, получивший высшее техническое образование с квалификацией инженер. А тип оборудования, которое он сможет проектировать или ремонтировать, определяется специализацией.$                      Организует работу по рационализации и изобретательству; принимает рационализаторские предложения и оформляет заявки на изобретения, оказывает помощь рационализаторам и изобретателям в разработке чертежей, выполнении расчетов, изготовлении и испытании опытных образцов; контролирует внедрение рационализаторских предложений в производство, правильность оформления документации и расчета авторских вознаграждений.$                Инженер электронной техники занимается исследованием, разработкой и эксплуатацией современных промышленных электронных устройств для преобразования информации в энергию, а также электронных устройств для технологических целей. Должен знать: физику полупроводниковых приборов, теорию и методы расчета электронных схем, методы применения электронных схем и микропроцессорных устройств.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Геологоразведчик$
+Дефектоскопист нефтепроводов$
+ (руководитель нефтебазы)$
+Инженер по бурению$
+Инженер по ремонту скважин$
+Инженер по технологическому обеспечению работы нефтегазового промысла </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Участвует в геологических разведочных, проектных и научно-исследовательских работах на нефть и газ. Проводит полевые геологические наблюдения и разрабатывает геологические и геофизические схемы и карты, оценивает запасы полезных ископаемых. Занимается диагностикой минералов и осадочных пород. Определяет технологию геофизических, буровых и горнопроходческих работ.$                               Дефектоскопист нефтепроводов - это специалист лаборатории "неразрушаюющего контроля". Строительство всех видов трубопроводов контролируется специалистами службы технического надзора. Не остаются без их внимания и уже действующие стальные магистрали.
+Дефектоскописты регулярно проводят диагностику на трубопроводном парке предприятия, которая показывает, какие участки нуждаются в ремонте, какие - в реконструкции или замене. Они ставят диагноз нефтепроводам и водоводам. Ультразвуковой и радиографический контроль трубопроводов проводится регулярно, согласно графику, без вывода их из эксплуатации, то есть не нарушая и х физического состояния.$                                                                              Инженер по бурению занимается организацией и контролем процесса бурения скважин. Как специалист он должен разбираться в буровом оборудовании, типах скважин, технологии процесса бурения. При разработке технического задания под бурение скважин инженер руководствуется ТУ и ГОСТами, данными геологических исследований, назначением скважин и сроком их будущего использования. Инженер оценивает риски, которые могут возникнуть при разработке скважины, отвечает за экологические нарушения. Технологический процесс бурения должен быть разработан согласно правилам техники безопасности.$                                   Инженер по ремонту скважин - это специалист, который осуществляет текущий и капитальный ремонт нефтяных и газовых скважин.
+В обязанности инженера по ремонту скважин входит:
+Контроль работ бригад капитального ремонта скважин;
+Руководство подрядными организациями, контроль их работы в соответствии с требованиями охраны труда и техники безопасности;
+Участие в разработке планов по капитального и подземного ремонта скважин, осуществляет контроль за выполнением графиков проведения ремонтов согласно утвержденных планов;
+Проведение анализа причин простоев и бездействия скважин и вынесение предложения по их устранению;
+Анализи и внедрение мероприятия по совершенствованию методов капитального и подземного ремонта скважин;$                                                        проектирование, сооружение и эксплуатация газонефтепроводов и газонефтехранилищ.
+Профессиональные знания, умения и навыки:
+знание технологии нефтегазового производства;
+знание технических характеристик и экономических показателей лучших отечественных и зарубежных нефтегазовых технологий;
+знание технических требований, предъявляемых к сырью, реагентам, материалам, готовой продукции в нефтегазовой промышленности;
+знание основных требований организации труда при исследовании технологических процессов нефтегазовой промышленности.$     </t>
+  </si>
+  <si>
+    <t>Инженер-геодезист$
+Кадастровый инженер$
+Инженер городского кадастра$
+Топограф$</t>
+  </si>
+  <si>
+    <t>Специалист по составлению карт местности, проведению инструментальной съемки, расчетов и составлению планов.  $           Кадастровый инженер - это специалист, который выполняет работы по межеванию земель и занимается решением вопросов, связанных с постановкой недвижимого имущества на кадастровый учет. Название профессии произошло от французского слова “cadastre”, которое переводится как “опись имущества”.$                                                               Инженер городского кадастра является сотрудником местных органов власти или уполномоченной коммерческой организации. Он занимается регистрационными действиями с различными объектами городского хозяйства, обследованием и учетом инженерной городской инфраструктуры, оформлением и выдачей документов на недвижимость и земельные участки.$                                         Топограф занимается отображением местности на планах, измерением поверхности Земли, съемкой рельефа, ориентированием. Планы и карты, созданные топографом, используются в строительстве, геодезии, разработке месторождений, военном деле и других сферах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженер-проектировщик$  
+Инженер-строитель$  
+Ведущий инженер по техническому надзору и эксплуатации сетей (ОВ и ВК)$  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженер-проектировщик – это специалист, в обязанности которого входит работа над архитекторскими чертежами и планами различных конструкций. Именно проектировщики занимаются разработкой схем расположенных в зданиях систем водоснабжения, канализации, электричества, а также пожарной безопасности.$                                                                Инженер-строитель – человек, способный в определенные сроки построить объект согласно проекту и в соответствии с определенными требованиями, касающимися качества и безопасности, используя имеющиеся людские и материальные ресурсы. Эта профессия принадлежит к разряду творческих профессий, здесь необходим анализ, испытания, конструирование и проектирование. Инженеры строители создают жилые и промышленные строения, автомобильные и железные дороги, мосты, трубопроводы и электросети. По роду деятельности инженер-строитель создает проект, контролирует строительные работы, монтаж конструкций, следит за качеством поставляемых материалов, определяет нормы и рассчитывает сметы.$                         На инженера по техническому надзору возложена повышенная ответственность: в строительной сфере он отвечает за то, насколько комфортным и, главное, безопасным для будущих обитателей дома будут здания и сооружения, а на производстве — за отсутствие рисков возникновения аварийных ситуаций.$      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. На первой учебной практике проходит экскурсия по аудиториям университета, в которых будет проходить дальнейшее обучение (если практика проходит на кафедре). Возможен выезд на предприятие, где также для студентов проведут экскурсию. Длится она две недели. По окончании практики пишется отчет по проделанной работе.$
+2. На второй учебной практике отправляют на предприятие. Выдают путевки, и студенты отправляются на указанный адрес. На ней студенты знакомятся с принципами работы с деловой документацией, обязанностями, которые выполняет специалист их будущей профессии. По окончании практики пишется отчет по проделанной работе.$
+3. На третьем курсе студенты проходят производственную практику. Также выдаются путевки и адреса предприятий. Тут вы можете вживую увидеть, в чем заключается суть будущей профессии, посмотреть на производство изнутри и сами в нем принять участие. Большую часть работы вы выполняете самостоятельно, но под присмотром специалистов. По окончании практики пишется отчет по проделанной работе.$
+4. На 4 курсе практика направлена на выявление и оценку сформированности профессиональных умений и опыта профессиональной деятельности выпускника, а также на овладение методами исследования и приемами ведения научно-исследовательской работы, необходимых для выполнения выпускной квалификационной (бакалаврской) работы. Преддипломная практика состоит из поиска, компоновки и анализа материала, который впоследствии будет использован в дипломной работе. Отчетом выступает реферат.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ведущий инженер-конструктор$  
+Инженер-геодезист$  
+Инженер-проектировщик$  
+Кадастровый инженер$  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Инженер-конструктор проектирует конструкции, инструменты, механизмы, здания, сооружения. Помимо разработки новых конструкций, инженер может модернизировать ранее созданные продукты. Например, разработать более производительный станок или современный автомобиль.$                                            Инженер-геодезист — специалист с высшим техническим образованием, выполняющий топографо-геодезические, изыскательские, разбивочные, проектировочные работы, работы по наблюдениям за деформациями зданий и сооружений, а также исполнительную документацию.$  Инженер-проектировщик – это специалист, в обязанности которого входит работа над архитекторскими чертежами и планами различных конструкций. Именно проектировщики занимаются разработкой схем расположенных в зданиях систем водоснабжения, канализации, электричества, а также пожарной безопасности.$                                                            Кадастровый инженер — это специалист, занимающийся межеванием земель, то есть определением границ и координат земельной собственности, а также составлением технических планов различных объектов капительного строительства.$     </t>
+  </si>
+  <si>
+    <t>Аварийный комиссар$
+Автомеханик$
+Автооценщик$
+Архитектор интеллектуальных систем управления беспилотного транспорта$
+Дистанционный координатор безопасности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аварийный комиссар – это гражданин или организация, к услугам которого обращаются страховые фирмы для гарантии собственной заинтересованности при наступлении страхового случая.$                                                               Автомеханик — это рабочий широкого про филя, который выполняет операции по техническому обслуживанию и ремонту автотранспортных средств, контролирует техническое состояние автомобилей с помощью диагностического оборудования и приборов, управляет автотранспортными средствами.$                                          Автооценщик (он же оценщик автомобилей, автоэксперт-оценщик) - специалист по оценке состояния автомобиля, полученных автомобилем поврежде. $                                   Архитектор интеллектуальных систем управления Разрабатывает программное обеспечение для беспилотного транспорта и систем управления транспортными потоками, контролирует интеллектуальные системы управления. Водный транспорт. Портовый эколог Специалист, занимающийся мониторингом и контролем показателей экологической безопасности порта, судов, окружающей среды (водной акватории, воздушной среды, прилегающих территорий, популяции растений и животных в акватории и на прилегающих территориях). $                                        Дистанционный координатор безопасности - это оператор новых автоматизированных и роботизированных охранных систем, следящий за их состоянием через датчики и камеры наблюдения и в случае необходимости отправляющий на объект группу быстрого реагирования. Эта профессия является развитием профессии охранника и в дальнейшем постепенно заменяется полностью автоматизированными охранными системами.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергодиспетчер$  
+Инженер-электрик$  
+Разработчик систем энергопотребления$  
+Системный инженер интеллектуальных энергосетей$  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основная задача диспетчера - обеспечение безаварийной работы энергосистемы. Поэтому если система функционирует нормально (без сбоев), диспетчер лишь наблюдает с помощью мнемосхемы (панель со множеством сигнальных устройств, наглядно отображающих работу частей системы) за ее работой. Здесь очень важно для диспетчера уметь сохранять постоянную готовность к экстренному действию в условиях монотонной работы. Наиболее ответственный этап деятельности диспетчера - ликвидация аварий. На этом этапе диспетчер должен в кратчайший срок принять правильное решение и произвести нужные действия. Чтобы выбрать из возможных вариантов решения то одно, которое необходимо в данный момент, диспетчер производит оценку возникшей ситуации.$                       Инженер-электрик – специалист, отвечающий за работу систем энергообеспечения. Он занимается разработкой и проектированием систем энергоснабжения объектов и предприятий, управляет процессами распределения и подачи энергии, а также обеспечивает бесперебойную работу электроустановок.$                                              Разработчик систем энергопотребления – специалист, который занимается проектированием систем энергопотребления для жилых, производственных, офисных помещений с учетом таких факторов, как экономичность, безопасность, удобство управления и эксплуатации для потребителя.$                                     Системный инженер интеллектуальных энергосетей – специалист, который занимается проектированием, моделированием «умных сетей», энергетических сред, микрогенерационных систем с учетом конкретной задачи. В его задачи входит разработка технологических и инфраструктурных требований к системе на протяжении всего срока их эксплуатации. Системный инженер интеллектуальных энергосетей также консультирует клиентов, как обустроить энергоснабжение для потребителя со стороны генерации и сети. Сейчас за границей такие специалисты только появляются. Например, в компании Siemens есть решение – сервис SureGrid, который позволяет контролировать энергопотребление. В будущем востребованность таких специалистов будет очень высока. Профессия появится после 2020 г.                                                                               </t>
+  </si>
+  <si>
+    <t>Промышленная электроника$
+Основы конструирования в машиностроении;
+Детали машин$
+Основы технологии машиностроения$
+Оборудование автоматизированного машиностроитель­ного производства$
+Программное управление оборудованием$
+Основы микропроцессорной техники$
+Электропривод станков$
+Электрические машины и аппараты$
+Процессы формообразования и инструмент$
+Вычислительные машины, системы и сети$
+Диагностика и надежность автоматизированных систем Инженерная и компьютерная графика$
+Материаловедение$
+Прикладная механика$
+Программирование и алгоритмизация$
+Средства автоматизации и управления$
+Теория автоматического управления$
+Технологические процессы автоматизированных производств$
+Электротехника и электроника.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электроэнергетика и электротехника$  Инноватика$ Инфокоммуникационные технологии и системы связи </t>
+  </si>
+  <si>
+    <t>Основы архитектурного проектирования $ Архитектурная графика и аналитический рисунок$ Живопись и архитектурная колористика$ Методология проектирования и исследований в архитектуре$
+История архитектуры и градостроительства$
+Социальнo-функциональные основы архитектурного проектирования$
+Основы экологической архитектуры$
+Основы теории архитектуры и градостроительства$                       Инженерные системы и оборудование в архитектуре$
+Экономика и организация архитектурного проектирования и строительства$   Реновация городской среды$
+Безопасность жизнедеятельности$      Живопись и колористика в проектировании городской среды$
+Основы формообразования и композиционного моделирования в архитектурно-дизайнерском проектировании$
+Композиция в архитектуре и дизайне$
+Конструкции в архитектуре$
+Предметное наполнение архитектурной среды$
+Современные пространственные и пластические искусства</t>
+  </si>
+  <si>
+    <t>Дизайн проектирование$
+Архитектурно-дизайнерское проектирование$
+Живопись и колористика в проектировании городской среды$
+Основы формообразования и композиционного моделирования в архитектурно-дизайнерском проектировании$
+Композиция в архитектуре и дизайне$
+Конструкции в архитектуре$
+Предметное наполнение архитектурной среды$
+Современные пространственные и пластические искусства$
+История урбанистики, архитектуры, ландшафтного и средового дизайна$
+Ландшафтное проектирование и дизайн$
+Архитектурный аналитический рисунок$
+Основы теории комплексного формирования дизайна архитектурной среды$
+Профессиональная практика в дизайне архитектурной среды$
+Предметный дизайн и дизайн мебели
+Графический дизайн$
+Ландшафтный дизайн и проектирование генпланов$
+Рисунок и живопись$
+Компьютерное проектирование$
+Макетное проектирование$
+Основы композиции$
+Составление рабочей документации проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архитектура$  Строительство$  Строительство уникальных зданий и сооружений </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Базы данных$
+Кадастровые геодезические работы$
+ Кадастры природных ресурсов$
+Информационное обеспечение$ градостроительной деятельности$
+Техническая инвентаризация объектов недвижи­мости$
+Правовое обеспечение землеустройства и када­стров$
+Географические информационные системы
+Кадастр недвижимости$</t>
+  </si>
+  <si>
+    <t>Прикладная геодезия$ Нефтегазовое дело</t>
+  </si>
+  <si>
+    <t>Управление инновационной деятельностью$
+Маркетинг в инновационной сфере$
+ Промышленные технологии и инновации$
+ Метрология, стандартизация и сертификация$
+ Маркетинг в инновационной сфере$
+ Трансфер и коммерциализация технологий$
+ Управление интеллектуальной собственностью$
+ Управление инновационными проектами$
+ Бизнес-планирование в инновационной деятельности$
+ Технологии нововведений и многие другие.</t>
+  </si>
+  <si>
+    <t>Электроэнергетика и электротехника$  Инфокоммуникационные технологии и системы связи$ Автоматизация технологических процессов и производств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безопасность жизнедеятельности $
+Введение в профессию $
+Гидромеханика $
+Деловой иностранный язык$
+Детали машин и основы конструирования$
+Инженерная графика$                   Информационные технологии$ Компьютерные системы решения прикладных задач$ 
+Конструкция корпуса и прочность судов                           </t>
+  </si>
+  <si>
+    <t>Машиностроение$  Технология транспортных процессов$  Мехатроника и робототехника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматизация технологических процессов в машиностроении$
+Безопасность жизнедеятельности$
+Виды изнашивания и причины отказа узлов трения$
+Гидро- и пневмопривод$
+Инженерная графика        $             Материаловедение$
+Методы и средства контроля состояния рабочих поверхностей$
+Метрология, стандартизация и сертификация$
+Механика жидкости и газа$
+Основы математического моделирования$
+Основы проектирования$                                                 Технологическое оборудование машиностроительного производства$
+Технология конструкционных материалов$
+Технология производства и ремонт промышленного оборудования$               Экономика и управление машиностроительным производством    </t>
+  </si>
+  <si>
+    <t>Основы мехатроники и робототехники$
+Электронные устройства мехатронных и робототехнических систем$
+Теория автоматического управления$
+Детали мехатронных модулей, роботов и их конструирование$
+Микропроцессорная техника в мехатронике и робототехнике$
+Компьютерное управление мехатронными системами$
+Программное обеспечение мехатронных и робототехнических систем$
+Электрические и гидравлические приводы мехатронных и робототехнических устройств$
+Промышленные роботы и робототехнологические комплексы$
+Пускорегулирующая аппаратура мехатронных систем$
+Роботы и их системы управления$
+Оптимальные системы управления$
+Информационные устройства в мехатронике$
+Проектирование мехатронных систем$
+Управление мехатронными системами$</t>
+  </si>
+  <si>
+    <t>Строительство и эксплуатация газонефтепроводов и хранилищ$
+газовые сети и установки$ 
+машины и оборудования газонефтепроводов$
+нефтебазы и резервуарные парки$
+насосные и компрессорные станции$
+техническая диагностика газонефтепроводов и арматуры и др.</t>
+  </si>
+  <si>
+    <t>Землеустройство и кадастры$  Прикладная геодезия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Геодезия$ 
+Прикладная геодезия$ 
+Астрономия$ 
+Морская геодезия$ 
+Теория математической обработки геодезических измерени$                                                                                                                                                                             Высшая геодезия, картография и основы координатно-временных систем$ 
+Геодезическая астрономия с основами астрометрии$ 
+Теория фигуры планет и гравиметрия$ 
+Космическая геодезия и геодинамика$ 
+ Математическое моделирование геопространственных данных$ 
+Фотограмметрия и дистанционное зондирование$ 
+Информационные технологии в прикладной геодезии$ 
+Физика Земли и атмосферы$ 
+ Инженерно-геодезические изыскания и лазерная съемка$ 
+Аэрокосмические съемки и топографическое дешифрирование$ 
+ Спутниковые системы и технологии позиционирования$ 
+Геоинформационные системы и технологии$ 
+Автоматизированные методы инженерно-геодезических работ
+</t>
+  </si>
+  <si>
+    <t>Землеустройство и кадастры$  Нефтегазовое дело</t>
+  </si>
+  <si>
+    <t>Архитектура$
+Технология строительных процессов$
+Водоснабжение и водоотведение$
+Экономика строительства$
+Технология возведения зданий и сооружений$
+Автомобильные дороги$
+Проектирование и строительство аэродромов$
+Теплогазоснабжение и вентиляция$
+Основы организации и планирования строительства$
+Система управления качеством в строительстве$
+Технология возведения подземных сооружений$
+Строительная физика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительство уникальных зданий и сооружений$  Архитектура$  Дизайн архитектурной среды </t>
+  </si>
+  <si>
+    <t>Архитектура$
+Технология строительных процессов$
+Водоснабжение и водоотведение$
+Экономика строительства$
+Технология возведения зданий и сооружений$ Основы организации и планирования строительства$
+Система управления качеством в строительстве$ Строительная механика$ Водоотведение.$ Канализационные сети.$ Инженерная мелиорация$  Архитектура энергоэффективных зданий$
+Термодинамика и тепломассообмен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительство$  Архитектура$  Дизайн архитектурной среды </t>
+  </si>
+  <si>
+    <t>Логистика$
+Взаимодействие видов транспорта$
+Международные перевозки$
+Транспортно-экспедиционное обслуживание$</t>
+  </si>
+  <si>
+    <t>Прикладное программирование$
+Электропитающие системы и электрические сети$
+Электроэнергетические системы и сети$
+Автоматическое противоаварийное управление$
+Энергосбережение, оптимизация в электроэнергетических системах$
+Дальние электропередачи сверхвысокого напряжения и др.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Инфокоммуникационные технологии и системы связи$ Инноватика$  Автоматизация технологических процессов и производств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Специфика данного направления заключается в подготовке выпускника к деятельности по изучению животных и растений Дальнего Востока, их экологии, охране и использованию; применению методов диагностики и профилактики паразитарных заболеваний; применению знаний основ репродукции и культивирования растений в хозяйственных целях; применению знаний биологических основ рыбного промысла и рыбоводства в хозяйствах марикультуры, деятельности в области современной клеточной биологии, генетики, молекулярной биологии, биохимии, иммунологии, гистологии, эмбриологии, микробиологии и других наук. Начиная с 3 курса, студенты выбирают свой дальнейший путь - определяются со специализацией. На кафедре биоразнообразия изучают больше растения, животные, структуру распространения.
+На кафедре цитологии и генетики изучают структуру ДНК, клеточную структуру, иммунологию.
+На кафедре биохимии и микробиологии изучают химические процессы, проходящие в животных и растениях, и различные микроорганизмы как патогенные, так и безобидные.
+На кафедре почвоведения изучают почвенные профили, строение почв.: </t>
+  </si>
+  <si>
+    <t>После завершения обучения студенты могут работать в различных сферах: заниматься научной и исследовательской деятельностью в российских и международных лабораториях, в том числе в институтах РАН и ведомственных научно-проектных учреждениях; административной и управленческой деятельностью в региональных и федеральных органах исполнительной власти, сфера которых затрагивает проблемы природопользования, охраны окружающей среды, регионального развития и планирования; реализовывать себя в экологических и туристских, кадастровых и прочих компаниях, отделах, заповедниках и национальных парках, гидрометеорологических службах и ведомствах, природоохранных и градостроительных организациях; заниматься формированием и развитием предпринимательских инициатив в области ресурсопользования, туризма, картографии, геоинформатики, геомаркетинга, территориального и ландшафтного планирования; работать в некоммерческом секторе, включая экологические, природоохранные и международные фонды, отраслевые общественные организации. Кроме того, возможности дополнительной профессиональной переподготовки на 3-4 курсе бакалавриата позволяют строить карьеру в сфере образования.</t>
+  </si>
+  <si>
+    <t>Актуальность угроз целостности и конфиденциальности информации требует внимательного отношения к задаче ее защиты. 20 лет назад задача обеспечения безопасности информации решалась при помощи средств криптографической защиты, установления межсетевых экранов, разграничения доступа. Сейчас этих технологий недостаточно, любая информация, имеющая финансовую, конкурентную, военную или политическую ценность, подвергается угрозе со стороны хакеров.
+По окончании направления «Информационная безопасность» выпускнику присваивается квалификация «Бакалавр». Выпускник обладает знаниями и умениями, позволяющими решать задачи в области защиты информации, а именно: определять информационные ресурсы, подлежащие защите, а также угрозы безопасности и эффективные пути защиты этих ресурсов; проводить установку, настройку и обслуживание программных, программно-аппаратных, криптографических и технических средств защиты информации; осуществлять работу с организационно-правовой документацией в области информационной безопасности.
+Область профессиональной деятельности заключается в обеспечении безопасности информации в автоматизированных системах, автоматизация информационно-аналитической деятельности в государственных органах, обеспечивающих национальную безопасность, защита информации в компьютерных системах и сетях, техническая защита информации.</t>
+  </si>
+  <si>
+    <t>В наши дни все процессы переходят в электронный формат будь то оформление документов или покупка в магазине. Однако работу таких сервисов должны обеспечивать грамотные специалисты.
+Программа ориентирована на подготовку квалифицированных специалистов, способных создавать, разрабатывать и внедрять сложные информационные и интеллектуально-аналитические системы не только в бизнесе, но и государственном секторе управления.
+Будущих специалистов обучают основам работы с базами данных, анализу их содержимого для решения необходимых задач с помощью математических методов. В ходе обучения преподаются дисциплины, связанные с архитектурой предприятий и информационных систем: какая система подойдет для организации, что необходимо включить в систему, какие методы и модели необходимо применять при разработке. Не мало важную часть в обучении занимает администрирование информационных систем и сетей, где на практике можно познакомиться с основными понятиями работы протоколов, программ, операционных систем, а также научиться грамотно осуществлять администрирование сложных систем, налаживать их компоненты и защищать их от несанкционированного доступа.</t>
+  </si>
+  <si>
+    <t>В настоящее время число утечек данных пользователей и финансовые потери от кибератак активно увеличиваются. Постоянно растет и уровень подготовки хакеров. Для обеспечения защиты безопасности данных требуется подготовка высококвалифицированных кадров с конкретными теоретическими знаниями и практическими навыками в области информационной безопасности.
+Специалисты, способные обеспечить безопасный и надежный способ ведения информационного обмена, сейчас, как никогда, востребованы.
+Данная специализация посвящена подготовке в области комплексной защиты информации. Выпускники занимаются обнаружением уязвимостей в автоматизированных системах, обеспечивают информационную безопасность на предприятиях и осуществляют контроль безопасности в компьютерных сетях.
+Основной задачей подготовки является выпуск готовых специалистов, обученных в соответствии с международными стандартами информационной безопасности, имеющих навыки работы с передовыми средствами защиты информации. Практические навыки будущих специалистов отрабатываются в единственном на Дальнем Востоке киберполигоне ДВФУ.</t>
+  </si>
+  <si>
+    <t>Компьютерные технологии охватывают все сферы деятельности человека, что делает выпускников по этому направлению самыми востребованными в обществе потому, что специалист с такими компетенциями всю жизнь осваивает новые возникающие технологии, и внедряет цифровые технологии в жизнь и деятельность человека. Образовательная программа сочетает базовую математическую компоненту, активно развивающую логические и аналитические способности студентов, современные информационные технологии, как на уровне разработки прикладного программного обеспечения, так и на уровне грамотного использования прикладных и инструментальных средств. Подобный универсализм в образовании, позволяющий выпускнику легко адаптироваться к новым предметным областям, корректно воспринимать должностные инструкции и быть профессионалом своего дела, достигается за счет сбалансированного сочетания общепрофессиональных компетенций и базовых знаний из актуальных для рынка труда предметных областей. Широкий спектр дисциплин математического цикла (математический анализ, дискретная математика и логика, алгебра и аналитическая геометрия, дифференциальные уравнения, кластерный и факторный анализ, математическая статистика, вычислительная математика и моделирование и др.) и очень мощный перечень осваиваемых дисциплин и курсов компьютерных технологий (языки и методы программирования, технологии программирования, программирование в «1-С» и «Битрикс», разработка веб-приложений, мобильных приложений, виртуальной и дополненной реальности, владение технологией электронного и дистанционного обучения, машинное обучение и большие данные, нейронные сети, основы искусственного интеллекта, облачные технологии, методы защиты информации и другие цифровые технологии). Выпускники, на основе сформированной индивидуальной траекторией обучения готовы вести научно-исследовательскую деятельность в областях, где применяются математические методы и компьютерные технологии; решать различные задачи с использованием математического моделирования процессов и программного обеспечения (ПО); выполнять работу в сфере экономики и управления, финансового анализа и разработки эффективных методов решения задач естествознания, техники. Они работают в компьютерных фирмах, банках, в компаниях сотовой связи, ритейла, рыбодобывающей промышленности, судоходства и строительства.</t>
+  </si>
+  <si>
+    <t>Направление подготовки соответствует инженерной деятельности, которая за рубежом называется «Computer Science», то есть компьютерные науки. Оно посвящено подготовке специалистов в области разработки программного обеспечения. Особенностью образовательной программы в ДВФУ является углублённое изучение фундаментальных основ алгоритмизации, разработки компиляторов, систем искусственного интеллекта.
+Основная будущая профессия выпускников – инженер-программист. Современная промышленная разработка серьёзного программного обеспечения – это очень большой пласт знаний в области информационных технологий, целая «отрасль в отрасли». Студенты обучаются полному циклу разработки программных систем: от работы с заказчиком, анализа предметной области и разработки требований до разработки архитектуры программного средства, написания программных кодов, верификации и тестирования программ. Для современной промышленной разработки программ характерна не индивидуальная, а коллективная работа. Это бывают и небольшие команды из 2-3 разработчиков, и крупные территориально распределённые коллективы из сотен сотрудников. Студенты получают опыт такой командной работы.</t>
+  </si>
+  <si>
+    <t>Направление «Прикладная информатика» готовит специалистов по трем образовательным программам:
+1) Прикладная информатика в дизайне - разработка, внедрение и эксплуатация мультимедийных приложений, интерактивных графических приложений, анимационных приложений, визуальных средств масс-медиа и т.д.
+2) Прикладная информатика в управлении – с этого профиля выпускаются специалисты по информационным системам для предприятий областей производства, коммерции и обслуживания, а также для учреждений и организаций государственного и местного управления.
+3) Прикладная информатика в экономике - ориентирована на подготовку специалистов в области проектирования, создания, администрирования, эксплуатации и сопровождения автоматизированных информационных систем, используемых для автоматизации деятельности предприятий и организаций различных организационно-правовых форм.
+Прикладная информатика подойдёт для тех, кто хочет получить знания и практические навыки, необходимые при выполнении работ, связанных с применением информационных технологий при решении актуальных задач отраслей, предприятий, коммерческих и других структур в области проектирования, организации и управления технологическими, экономическими, финансовыми и иными процессами на базе широкого применения современной вычислительной техники. Выпускники могут работать в IT-компаниях, которые поставляют системы на предприятия, а также в службах информационных технологий предприятий, использующих эти системы, где внедряют современные программные пакеты, платежные системы. Потенциальные будущие профессии и должности выпускников: - системный аналитик - проектировщик информационных систем - руководитель группы администрирования - проектировщик интерфейсов - инженер-программист - тестировщик программ и настройщик оборудования.</t>
+  </si>
+  <si>
+    <t>Обучаясь на программе «Математические и цифровые методы в экономике и аналитике» по направлению подготовки «Прикладная математика» Вы получите уникальную подготовку в области управления и прогнозно-аналитической деятельности в социально-экономических системах, чрезвычайно востребованную повсюду в мире и, конечно, на Дальнем Востоке России.
+Наша программа является аналогом образовательных программ Applied Mathematics/Economics, развиваемых в Гарварде, Национальном университете Сингапура, Токийском университете и многих других, входящих в ТОП-100 лучших университетов мира.
+Вы получите навыки, знания и умения в сфере государственного и муниципального управления, обеспечения национальной безопасности России, а также мониторинга и контроля реализации документов стратегического планирования.
+Основным содержанием программы является подготовка в области современной экономико-математической теории, математического моделирования целеполагания, прогнозирования, планирования и программирования социально-экономического развития России, регионов, городов, отраслей экономики и компаний крупного, среднего и малого бизнеса, домашних хозяйств.
+Программа успешно сочетает классическую русскую систему обучения с международным проектным обучением. За время обучения вы отлично выучите английский язык, реализуете несколько собственных курсовых проектов (не менее 4-х), научитесь командной работе и получите востребованные любым из экономических агентов компетенции. Студенты обучаются в специализированных мультимедийных аудиториях и компьютерных классах, изучают и используют программное обеспечение, операционные системы с открытым и закрытым кодом, базовые и специальные (встроенные) языки программирования, специальные программные системы, ориентированные на решение задач целеполагания, прогнозирования, планирования, программирования социально-экономического развития: С++ (Microsoft Visual Studio), Python, Windows и Linux, R project, MS project, BPwin, Erwin, R, Matlab/ Graph, Graph Model Workshop, Eviews, Statistica, 1С Предприятие, Matlab/Octave, AMPL и др.</t>
+  </si>
+  <si>
+    <t>Математик, умеющий программировать - хозяин компьютера. Программист, не знающий математики, - его слуга! Вы получите высшее образование мирового уровня и возможность выбора дальнейшей профессиональной деятельности практически во всех секторах экономики и общественной жизни. Студенты изучают комплекс математических дисциплин: математический анализ, алгебра и геометрия, дискретная математика и логика, математическое моделирование в различных областях и так далее, а также дисциплины, связанные с современными компьютерными технологиями: языки программирования и методы трансляции, системное и прикладное программное обеспечение, компьютерные сети и администрирование, математические основы компьютерной графики, параллельное программирование, программирование в Internet и веб-дизайн, технологии защиты информации и многопроцессорные вычислительные комплексы. Выпускники подготовлены как к продолжению образования в Российской и зарубежной магистратурах, так и к использованию программирования, математического моделирования и информационных технологий в предпринимательской, проектно-конструкторской, управленческой и финансовой деятельности.</t>
+  </si>
+  <si>
+    <t>Студенты научатся проектировать, кодировать и тестировать программные средства, планировать и оптимизировать процессы разработки программ; узнают алгоритмические языки и базовые структуры данных и овладеют соответствующими им шаблонами проектирования, различными технологиями программирования; научатся производить рефакторинг программного кода, разработку и анализ метрик качества программ. Особенностью образовательной программы в ДВФУ является углублённое изучение систем искусственного интеллекта. Некоторые дисциплины изучаются на английском языке в рамках международных программ академического партнерства. Это дает возможность студентам участвовать в программах международной академической мобильности, продолжить своё обучение за рубежом, работать по окончании обучения в самых успешных и перспективных ИТ компаниях.
+Основные будущие профессии выпускников этого направления – инженер-программист и системный аналитик. Те выпускники, которые станут инженерами-программистами, будут заниматься разработкой программ в самых разных аспектах: работать с заказчиком, изучать предметную область, формулировать и анализировать требования, разрабатывать архитектуру программного средства, писать программный код на высоком профессиональном уровне. Работа системного аналитика посвящена управлению процессом разработки программ и обеспечению качества программных средств. Эти специалисты планируют производственные процессы в рамках выбранной технологии программирования, оценивают эффективность работы над проектом, формируют рекомендации и инструкции для работы команд разработчиков.</t>
+  </si>
+  <si>
+    <t>Поступив на физику, вы встретите сочетание интенсивной подготовки студентов по математике, общей, теоретической, вычислительной физике и специального обучения студентов с постепенным включением их в реальную научно-исследовательскую работу. Выпускники программы приобретут необходимые навыки исследователей и получат глубокие знания в области естественных наук. В процессе обучения студенты сформируют физико-математическое мышление, получат качественное и современное образование с набором компетенций, обеспечивающих практическую реализацию приобретённых знаний в сферах науки, производства, образования и предпринимательской деятельности, подготовятся к деятельности в области исследований, анализа и моделирования физических явлений на микро-, макро- и мега-уровнях.
+Обучающие смогут выбирать спецкурсы, близкие к их профессиональным предпочтениям, разрабатывать теоретические модели, проводить эксперименты, обрабатывать результаты и составлять отчеты, научатся решать задачи, которые ставит как современная физика, так и различные отрасли науки и техники.
+Востребованность физиков определяется необходимостью наличия на рынке труда специалистов, обладающих развитыми компетенциями в области исследования, разработки и технологий, направленных на регистрацию и обработку информации, разработку теории и моделей, в области фундаментальной и прикладной физики: физические системы различного масштаба и уровней организации, процессы их функционирования; физические, инженерно-физические, биофизические, химико-физические, медикофизические, природоохранительные технологии, технологии создания материалов для наноэлектроники. В настоящее время наблюдается востребованность выпускников во многих областях наук, например в геофизике, геологии и др., а также в производстве, IT индустрии, медицине – ведь в этих областях требуется высококвалифицированный персонал, в том числе с классическим физическим образованием, имеющий необходимые знания и компетенции для эксплуатации разного оборудования.</t>
+  </si>
+  <si>
+    <t>«Химическая технология» – это единственное инженерное направление, совмещающее в себе как инженерную, так и естественнонаучную (химическую) подготовку. Студенты программы получат классическое инженерное образование, чтобы уверенно чувствовать себя в производственно-технологической, организационно-управленческой, научно-исследовательской и проектной работе. Химики-технологи востребованы на химических производствах, в научно-исследовательских институтах и проектных бюро. Они – лидеры Национальной технологической инициативы и управленцы перспективных стартапов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На протяжении всего обучения на бакалавриат по направлению "Химия", студенты могут познакомиться с самыми разными химическими лабораториями Дальневосточного федерального университета. Начиная свое обучение с лаборатории неорганической химии и заканчивая органической химией. Студенты нашего направления - это люди, которые получают фундаментальные знания по разным областям химии. Таких как неорганическая, аналитическая, физическая, коллоидная, органическая и биоорганическая химия, а также смежных с ними науках.
+Выпускники по направлению "Химия" приобретает способность выбирать и использовать технические средства и методы испытаний для решения исследовательских задач химической направленности.
+Способность участвовать в разработке основных и дополнительных образовательных программ, разрабатывать отдельные их компоненты формируется в результате освоения дисциплины «Методика преподавания химии в школе», а также прохождение педагогической практики в школах.
+Выпускники нашего направления пользуются спросом в ведомственные лаборатории силовых ведомств, нефтеперерабатывающей промышленности, а также в академических институтах химического направления (ТИБОХ ДВО РАН и ИХ ДВО РАН).
+</t>
+  </si>
+  <si>
+    <t>Студенты-экологи получают фундаментальные знания в области функционирования природных, антропогенных, природно-антропогенных систем, а также профессиональные компетенции, необходимые для оценки, управления и моделирования процессов взаимодействия организмов с окружающей средой. В процессе обучения студенты участвуют в проведении научных исследований в области экологии и охраны природы, получают знания, умения и навыки в области научно-исследовательской, экспертно-аналитической и контрольно-надзорной областей профессиональной деятельности.</t>
+  </si>
+  <si>
+    <t>Инновационная область не обходится без нанотехнологий! Студенты направления «Электроника и наноэлектроника» готовятся овладеть средствами, способами и методами человеческой деятельности, направленных на теоретическое и экспериментальное исследование, математическое и компьютерное моделирование, проектирование, конструирование, использование и эксплуатацию материалов, компонентов, электронных приборов, устройств, установок вакуумной, плазменной, твердотельной, оптической, микро- и наноэлектроники, а также фотоники и оптоэлектроники различного функционального назначения.
+Обучение ориентировано на подготовку специалистов в области микроэлектроники, наноэлектроники и нанотехнологий, оптоэлектроники и информационной оптики.
+Разработка и эксплуатация приборов и устройств микроэлектроники и наноэлектроники, основанных на применении наноматериалов, в том числе и магнитных, полупроводниковых гетероструктур и наногетероструктур, фотодиодов, светодиодов, транзисторов и приборов, основанных на квантовых принципах, требует наличия знаний и умений в области теоретической и экспериментальной физики, физики твердого тела, физики наноструктур, микро- и наноэлектроники, технологии роста полупроводниковых гетероструктур, сверхрешеток и полупроводниковых наноматериалов, основ радиоэлектроники и микросхемотехники, технологии нанолитографии, методов исследования свойств структур с пониженной размерностью и наноматериалов, методов моделирования квантоворазмерных структур, информатики, техники сверхвысокого вакуума, парового химического осаждения из металлорганических соединений и атомного слоевого осаждения.</t>
+  </si>
+  <si>
+    <t>Биолог$
+Ботаник$
+Генетик$
+Гидробиолог$
+Зоолог$
+Микробиолог$
+Лаборант$
+Преподаватель биологии</t>
+  </si>
+  <si>
+    <t>Учебные выездные практики$
+Практики в лабораториях и институтах$</t>
+  </si>
+  <si>
+    <t>После 1 и 2 курсов студенты проходят полевую практику около бухты Киевка. Все расходы оплачиваются, проживают студенты с летних домиках, кормят. Сама биологическая база находится на берегу моря, живописная природа и теплое лето делают прохождение практики очень увлекательным. Целью практики является применение полученных в ходе обучения знаний по зоологии, ботанике, гидробиологии и орнитологии. Студенты собирают живой материал, изучают его, пишут научные работы.$
+Научные руководители дают студентам задания, которые вторые должны выполнить во время практики, в основном задачи и цель практики ставятся на основе научных работ, которые выполняют студенты.$</t>
+  </si>
+  <si>
+    <t>Лаборатории и институты Приморского края$
+Сторонние стажировки</t>
+  </si>
+  <si>
+    <t>Некоторые студенты могут претендовать на стажировки в другие страны, о чем предварительно можно согласовать с кафедрой$
+Работа в лабораториях и институтах связана со специализацией, которую студенты выбирают на 3 курсе. От этого зависит дальнейшая научная деятельность, написание курсовых работ и выпускной квалификационной работы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Преподаватель дисциплин в области географии$
+Научный сотрудник$
+Сотрудник заповедника$
+Картограф$
+Менеджер по туризму
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проводятся выездные полевые учебные практики на научно-экспериментальных базах ДВО РАН («Смычка» в пгт Рудная Пристань Приморского края, Северо-Восточная станция в п. Черский, Якутия)$
+Производственные практики в лабораториях и центрах ТИГ ДВО РАН, ДВНИГМИ, ТИНРО-Центра, Ботанического сада-института, в составе морских экспедиций ТОИ ДВО РАН, в региональных и муниципальных природоохранных, коммерческих организациях и управленческих структурах. 
+</t>
+  </si>
+  <si>
+    <t>Выездные стажировки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Также существует возможность пройти научную стажировку в профильных подразделениях ведущих российских университетов (МГУ, НИУ ВШЭ, КФУ, БФУ) и Русского географического общества. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитик в области информационной безопасности$
+Инженер по информационной безопасности$
+Инженер по сопровождению программного обеспечения$
+Специалист по защите информации$
+Системный программист$
+Системный администратор
+</t>
+  </si>
+  <si>
+    <t>Учебные практики$
+Производственная практика$
+Научно-исследовательская работа$
+Преддипломная практика</t>
+  </si>
+  <si>
+    <t>Студенты  приобретают компетенции, связанные с разработкой и эксплуатацией средств и систем защиты информации компьютерных систем, информационно-вычислительных систем различного назначения, начиная от определения состава требований к создаваемой системе защиты и заканчивая проверкой работоспособности созданной системы.</t>
+  </si>
+  <si>
+    <t>ПАО «МТС», ПАО Варяг, АО «Центр судоремонта «Дальзавод», ООО «ССК Звезда», АО Восточная Верфь, ПАО Аскольд, АОО «Прогресс» им. Сазыкина Н.И., ООО Владивостокский морской порт, АО «Дальневосточная генерирующая компания», ЗАО «ЛАНИТ ДВ», МоорСтивенс Владивосток, АО «Корпорация развития Дальнего Востока, ОАО ВП «ЭРА, ООО «Лаборатория виртуальной реальности Дальний Восток»</t>
+  </si>
+  <si>
+    <t>В основном, стажировка связана с областью обеспечения защищенности объектов информатизации в условиях существования угроз в информационной сфере с использованием новых технологических трендов в инфраструктуре компьютерных и информационных систем.</t>
+  </si>
+  <si>
+    <t>Программист$
+Системный администратор$
+Администратор баз данных$
+Разработчик программного обеспечения$
+Web-разработчик$
+Сервисный инженер$
+Научный сотрудник$
+Преподаватель дисциплин, связанных с ИТ</t>
+  </si>
+  <si>
+    <t>Учебные практики представляют собой выполнение определенных заданий и защиту отчетов по практике.$
+Производственные практики студенты могут организовывать самостоятельно, заключая договор со сторонней организацией.$
+Научно-исследовательская работа подразумевает выбор руководителя и темы работы, после защиты которой можно принять участие в конференции.$</t>
+  </si>
+  <si>
+    <t>Приморский океанариум</t>
+  </si>
+  <si>
+    <t>По договоренности с кафедрой можно устроиться на стажировку в Приморский океанариум для знакомства с должностью системного администратора</t>
+  </si>
+  <si>
+    <t>Специалист по защите информации$
+Руководитель отдела безопасности$
+Инженер-проектировщик информационных систем и сетей$ 
+Ведущий специалист по безопасности$ 
+Разработчик информационных систем$
+Системный администратор</t>
+  </si>
+  <si>
+    <t>Учебные практики$
+Учебно-лабораторный практикум$
+Экспериментально-исследовательская практика$
+Конструкторская/технологическая практика$
+Эксплуатационная практика$
+Научно-исследовательская работа$
+Преддипломная практика</t>
+  </si>
+  <si>
+    <t>На старших курсах появятся обязательные ознакомительные и производственные практики, для прохождения которых университет подписывает договоры с различными компаниями, среди которых:
+ОАО «Сбербанк России»
+ГУ Управление Пенсионного фонда
+Институт автоматики и процессов управления ДВО РАН
+ПАО «Ростелеком»
+ООО «ФарПост»</t>
+  </si>
+  <si>
+    <t>ООО «Информационный центр»$
+АО «Восточная верфь»$
+АО «Изумруд»</t>
+  </si>
+  <si>
+    <t>Web-разработчик$
+Системный администратор$
+Математик$
+Инженер-программист$ 
+Программист$
+Научный сотрудник$ 
+Системный аналитик$ 
+Математик-аналитик$ 
+Разработчик Web и мультимедийных приложений$ 
+Преподаватель в области математики и информационных технологий</t>
+  </si>
+  <si>
+    <t>Учебные практики$
+Конструкторская/технологическая практика$
+Производственная практика$
+Научно-исследовательская работа$
+Преддипломная практика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все студенты проходят практику после летней
+сессии. Практика длится две недели, все из которых
+посвящены работе над проектом, который будет зашищаться впоследствии. </t>
+  </si>
+  <si>
+    <t>Наши студенты проходят стажировки и участвуют в проектах партнеров — группы компаний «РМСофт», проекта «КиберРоссия», компании  Mazda Sollers, международного некоммерческого движения WorldSkills Russia, научно-исследовательских институтов ДВО РАН, ООО «Дальневосточный интеллектуальный потенциал», банки «Приморье», ПАО «Сбербанк России», Владивостокский Морской торговый порт, ООО «ФарПост», ООО «ДНС Ритейл», ПАО «МТС» («Мобильные ТелеСистемы»), ПАО «Мегафон», MyTona (ООО «МайТона»)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработчик программного обеспечения$
+Инженер-программист$
+Системный аналитик$
+Системный администратор </t>
+  </si>
+  <si>
+    <t>На первых двух курсах практика учебная. Ваш руководитель даст задание которое нужно будет выполнять в течении практики.$
+На 3 и 4 курсах практика уже будет производственная, где Вы будете работать в компании. Среди компаний будут такие как: ООО «Фарпост», ООО «Ронда», ПАО «Сбербанк», ООО «ДНС Приморье» и т.д.</t>
+  </si>
+  <si>
+    <t>ООО «Фарпост», ООО «Ронда», ПАО «Сбербанк», ООО «ДНС Приморье», Институт автоматики и процессов управления ДВО РАН и т.д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бизнес-аналитик$ 
+Менеджер по поддержке ИС$ 
+Программист$ 
+Инженер-программист$ 
+Системный администратор$ 
+Тестировщик$
+Web-дизайнер
+</t>
+  </si>
+  <si>
+    <t>Учебные  практики$
+Производственные практики$</t>
+  </si>
+  <si>
+    <t>АО «Корпорация развития Дальнего Востока», ООО «Айтерра», ООО Владивостокский морской порт, АО «Дальневосточная генерирующая компания», ООО «ССК Звезда», ЗАО «ЛАНИТ ДВ», ООО «Современные технологии сервиса", МоорСтивенс Владивосток,   ООО «Лаборатория виртуальной реальности Дальний Восток», АОО «Прогресс» им. Сазыкина Н.И.,  АО Восточная Верфь,  ПАО Аскольд, ПАО Варяг, АО «Центр судоремонта  «Дальзавод»,  ОАО ВП «ЭРА и др.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитик рыночного риска$
+Системный аналитик$
+Администратор баз данных$
+Программист$
+Специалист по математическим методам в экономике$
+Специалист по математическому моделированию$
+Финансовый аналитик$
+Экономист
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучаясь на программе, у вас будет возможность принимать участие в реализации крупных государственных проектов, решать отраслевые задачи и развивают навыки разработки и исследований математических методов, моделей объектов, систем, процессов и технологий, предназначенных для расчетов, анализа и подготовки управленческих решений. Они могут касаться производственной, хозяйственной, экономической, управленческой деятельности предприятий и сферы государственного управления.
+Например, с помощью суперкомпьютерного моделирования Вы сможете научиться проводить расчеты межотраслевого баланса регионов Дальнего Востока и экономик Северо-Восточной Азии с целью поиска оптимального направления инвестирования или анализировать социальные и экономические сети.
+</t>
+  </si>
+  <si>
+    <t>Solbridge International School of Business (Республика Корея) в рамках программ обмена ДВФУ$
+Kwangwoon University в области математики в рамках меморандума о сотрудничестве с ДВФУ (Республика Корея), Ассоциация независимых центров экономического анализа (АНЦЭА) РФ (Москва, грантовая поддержка OXFORD Russia/BP), Университет Tunku Abdul Rahman (Малайзия) в рамках программ обмена ДВФУ, Ростелеком, Группа компаний «Доброфлот», Мазда-Соллерс, Группа компаний «ДНС», Группа компаний Мегатекс, Правительство Приморского края, Главное управление по Дальнему Востоку Банка России, Минвостокразвития, Проект «Профстажировки.рф», Проект агентства по развитию человеческого капитала</t>
+  </si>
+  <si>
+    <t>Разработчик программного обеспечения$
+Инженер-программист$
+Системный аналитик$
+Системный администратор$
+Специалист ИТ-отдела$
+Мобильный разработчик$
+Менеджер по разработке программного обеспечения</t>
+  </si>
+  <si>
+    <t>Физик$
+Специалист по фотонике$
+Инженер$
+Преподаватель физики$
+Лаборант$
+Научный сотрудник</t>
+  </si>
+  <si>
+    <t>Обычно практику можно проходить в институтах ДВО РАН, занимаясь научно-исследовательской работой</t>
+  </si>
+  <si>
+    <t>Оператор технических установок$
+Лаборант химического анализа$
+Инженер-технолог$
+Научный сотрудник$
+Инженер-композитчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Практика по получению первичных профессиональных умений и навыков$
+Практика по получению профессиональных умений и опыта организационно-управленческой проектной деятельности$
+Технологическая практика$
+Научно-исследовательская работа$
+Преддипломная практика$
+</t>
+  </si>
+  <si>
+    <t>Практики, которые студенты проходят в лабораториях ДВФУ, на действующих предприятиях и/или научно-исследовательских институтах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО «Восточная нефтехимическая компания»$
+ПАО «СИБУР Холдинг»$ 
+ООО «РН-Востокнефтепродукт»$ 
+ПАО «Роснефть»$ 
+АО «ННК-Хабаровский НПЗ»$
+Институт химии ДВО РАН 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Биохимик$
+Инженер-химик пищевого производства$
+Научный сотрудник в области химии$
+Лаборант$
+Химик-аналитик$
+Химик-неорганик$
+Химик-органик$
+Преподаватель химических дисциплин
+</t>
+  </si>
+  <si>
+    <t>Учебные  практики$
+Практики в лабораториях и институтах$</t>
+  </si>
+  <si>
+    <t>Стажировки в пределах г. Владивосток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Также существует возможность пройти научную стажировку в лабораториях ДВФУ и институтах ДВО РАН в пригороде Владивостока. 
+</t>
+  </si>
+  <si>
+    <t>Ведущий эколог$
+Эколог на разных предприятиях$
+Специалист по охране окружающей среды$
+Преподаватель экологии$
+Лаборант$
+Научный сотрудник в области экологии</t>
+  </si>
+  <si>
+    <t>Учебные практики$
+Производственная практика$
+Преддипломная практика</t>
+  </si>
+  <si>
+    <t>После окончания 1 курса вас ждёт полевая практика на биологической станции
+После второго курса практик будет две: полевая и практика на базе университета, в лабораториях кафедры экологии
+На 3 курсе: учебная и производственная
+На 4 курсе: производственная и преддипломная</t>
+  </si>
+  <si>
+    <t>На всех курсах  – по инициативе студента может быть организована и профинансирована за счет собственных тревел-грантов Школы естественных наук ДВФУ стажировка по России и за рубежом.
+3 и 4 курс – по инициативе студента или его научного руководителя в рамках прохождения производственной практики может быть организована стажировка на предприятии и в организациях Приморского края.
+4 курс – по инициативе студента  может быть оформлен обмен по программе обучения в другом вузе с перезачетом дисциплин.</t>
+  </si>
+  <si>
+    <t>Выпускники поступают в магистратуру и аспирантуру на специальность “Физика конденсированного состояния”$
+Устраиваются в Институты Дальневосточного отделения Российской академии наук ИАПУ, ИХ ДВО РАН, ТОИ, ДВГИ – инженер, инженер электроник, лаборант$ 
+ЗАО "РТК" – специалисты</t>
+  </si>
+  <si>
+    <t>Наши студенты проходят практику и выполняют квалификационные работы на базе Лаборатории пленочных технологий ДВФУ и отдела Физики поверхности ИАПУ ДВО РАН. Уровень оснащения оборудованием находится на уровне лучших мировых лабораторий</t>
+  </si>
+  <si>
+    <t>Институт автоматики и процессов управления ДВО РАН, Отдел физики поверхности$
+Институт химии ДВО РАН$
+Дальневосточный геологический институт ДВО РАН$
+Коммерческие организации, занимающиеся деятельностью в области эксплуатации сложного технологического оборудования$
+Департаменты информационных технологий вузов</t>
+  </si>
+  <si>
+    <t>Ботаника$
+Зоология$
+Методы биологических исследований$
+Микробиология$
+Теория эволюции$
+Химия$
+Генетика$
+Цитология$
+Физиология микроорганизмов, растений, животных$
+Биология размножения и развития$
+Биостатистика$
+Биоэтика$
+Латинский язык$
+Анатомия</t>
+  </si>
+  <si>
+    <t>Биотехнология$
+Экология и природопользование$
+Медицинская биохимия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математика$
+Географические основы экологии$
+Общая химия$
+Землеведение и геофизика$
+Экономическая и социальная география России$
+Проект экономико-географического анализа территорий и городов$
+Картография$
+Геостатистика$
+Гидрология$
+География почв с основами почвоведения$
+Климатология с основами метеорологии$
+География населения с основами демографии
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В конечном счете получение широкой образовательной базы, разнообразного набора компетенций и конкретных практических навыков в области экологической географии и управления пространственным развитием обеспечит выпускникам получение качественного и современного образования, способности адаптирования к решению сложных задач и перспектив практической реализации приобретенных знаний в различных сферах науки, образования, производства, некоммерческого сектора, бизнеса и управления.$
+Программа основана на сочетании сильной фундаментальной подготовки по базовым географическим и смежным дисциплинам, освоения современных методов географии и геоинформатики, реализации проектного и практико-ориентированного обучения, а также вовлечения студентов в реальные кейсы и научные исследования. 
+На старших курсах предполагается возможность выбора индивидуальной образовательной траектории по трем трекам («Глобальные изменения климата и управление опасными природными процессами», «Экологизация территориального планирования», «Социально-экономическая география и пространственные решения управления»).
+</t>
+  </si>
+  <si>
+    <t>Языки программирования$
+Технологии и методы программирования$
+Обеспечение информационной безопасности$
+Методы защиты информации$
+Основы информационной безопасности$
+Системы передачи информации и сети$
+Технические средства для защиты информации</t>
+  </si>
+  <si>
+    <t>Компьютерная безопасность$
+Информационные системы и технологии</t>
+  </si>
+  <si>
+    <t>ДВФУ дает возможность принять участие в курсах и олимпиадах, таких как: «Я-Профессионал», WorldSkills по соответствующим компетенциям, Русский MeetUp – форум, объединяющий ИТ-сообщество Дальнего Востока, Всероссийские соревнования по информационной безопасности RUCTF, Всероссийская студенческая олимпиада по направлению «Информационная безопасность»</t>
+  </si>
+  <si>
+    <t>Математический анализ$
+Физика$
+Информатика и основы программирования$
+Инструментальные средства информационных систем$
+Вычислительные методы компьютерных систем$
+Информационная безопасность и защита информации$
+Технологии программирования$
+Администрирование информационных систем$
+Основы электроники и электротехники$
+Программирование на Python$
+Управление данными$
+Основы проектной деятельности</t>
+  </si>
+  <si>
+    <t>Информационная безопасность$
+Компьютерная безопасность$
+Математическое обеспечение и администрирование информационных систем</t>
+  </si>
+  <si>
+    <t>Математический анализ$
+Теория вероятностей и математическая статистика$
+Физика$
+Электроника и схемотехника$
+Концепции современного естествознания$
+Методы программирования$
+Аппаратные средства вычислительной техники$
+Системы управления базами данных$
+Компьютерное моделирование$
+Сети и системы передачи информации$
+Защита в операционных системах$
+Криптографические методы защиты информации$
+Организационное и правовое обеспечение информационной безопасности</t>
+  </si>
+  <si>
+    <t>Информационная безопасность$
+Информационные системы и технологии</t>
+  </si>
+  <si>
+    <t>Для заинтересованных студентов, имеющих навыки соответствующего уровня и желание прогрессировать, на базе университета организуются различные соревнования международного и государственного уровней по информационной безопасности.  Это дает невероятный прирост опыта и соответствующие плюсы для дальнейшей карьеры в рамках специальности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математическое и компьютерное моделирование$ 
+Вычислительная математика$ 
+Теория вероятностей и математическая статистика$ 
+Теория игр$ 
+Комплексный и функциональный анализ$
+Физика и теоретическая механика$ 
+Методы оптимизации$ 
+Математическое и компьютерное моделирование$ 
+Вычислительная математика </t>
+  </si>
+  <si>
+    <t>Прикладная математика и информатика$
+Прикладная математика$</t>
+  </si>
+  <si>
+    <t>Практику также можно проходить в какой-нибудь компании. Студентов нашей специальности часто
+отбирают на стажировки в различные фирмы. Это не только идёт в счёт летней практики, но и
+помогает получить опыт работы в индустрии$
+Помимо базовых дисциплин программы включают в себя 42 курса по выбору, тем самым позволяют сформировать студенту индивидуальную образовательную траекторию и стать уникальным специалистом на ранке труда. Спектр специализаций довольно широк: 1-с программисты, FrontEnd и BackEnd разработчики, разработчики Web- и мобильных приложений, низкоуровневые программисты. Комбинация образовательных курсов позволяет продолжить обучение в магистратуре и дальнейшей обучение в аспирантуре в области вычислительной математики, математического моделирования и информатики, и вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Математический анализ$
+Разработка объектно-ориентированных приложений$ 
+Технология разработки баз данных$ 
+Методы системного анализа и моделирования$ 
+Системы искусственного интеллекта$ 
+Современные интернет технологии$ 
+Теория вычислительных процессов и структур$
+Основы Machine Learning$ 
+Администрирование информационных систем</t>
+  </si>
+  <si>
+    <t>Программная инженерия$
+Информационные системы и технологии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математические дисциплины$
+Операционные системы$
+Объектно-ориентированное программирование$
+Алгоритмы и структуры данных$
+Вычислительные системы, сети и телекоммуникации$
+Информационные системы и технологии$
+Моделирование систем$
+Правовые основы прикладной информатики$
+Технологии Web-программирования$
+Базы данных$
+Теоретические основы и технология обработки больших данных$
+Проектирование ИС$
+Программирование в среде 1С:Предприятие$
+Системы искусственного интеллекта$
+Высокопроизводительные вычисления, облачные сервисы, виртуализация и суперкомпьютерные технологии$
+Разработка пользовательского интерфейса$
+Корпоративные информационные системы$
+Предметно-ориентированные информационные системы$
+Большие данные
+</t>
+  </si>
+  <si>
+    <t>Участие в хакатоне, WorldSkills, "Я - профессионал". Также в процессе обучения идёт проектная деятельность, где командами создаются проекты, направленные на решение каких-либо проблем связанных с IT-сферой, и в дальнейшем планируется их реализация.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математические основы теории сетей$
+Экстремальные задачи на сетях и графах$
+Социальные сети$
+Математические модели макро- и микроэкономики$
+Эконометрика$
+Машинное обучение и анализ данных$
+Бескоалиционные игры$
+Прикладная статистика и многомерные статистические методы$
+Моделирование и проектирование отраслевых задач$
+Компьютерные технологии финансового учета на предприятии$
+Математические модели маркетинга$
+Теория риска и моделирование рисковых ситуаций$
+Финансовая математика$
+Актуарная математика
+</t>
+  </si>
+  <si>
+    <t>Математика и компьютерные науки$
+Прикладная математика и информатика$
+Экономика</t>
+  </si>
+  <si>
+    <t>Обучаясь здесь, Вы научитесь корпоративной культуре, обзаведетесь полезными связями и знакомствами, получите востребованные знания, сможете участвовать в международных проектах и работать в ведущих компаниях России и мира.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмы и структуры данных$ 
+Математический анализ$ 
+Web-программирование$ 
+Программирование мобильных и оконных приложений$ 
+Линейная алгебра$
+Дискретная математика$ 
+Экономика$
+Базы данных$
+Математическое моделирование$
+Технологии программирования$
+Теория вероятностей и математическая статистика$
+</t>
+  </si>
+  <si>
+    <t>Математика и компьютерные науки$
+Прикладная математика$</t>
+  </si>
+  <si>
+    <t>Математический анализ$
+Алгебра и теория чисел$
+Дифференциальные уравнения$
+Основы алгоритмизации и программирования$
+Объектно-ориентированное программирование$
+Современные информационные технологии$
+Теория языков программирования и компиляторы$
+Проектирование и разработка баз данных$
+Введение в программную инженерию$
+Фундаментальные структуры данных и алгоритмы</t>
+  </si>
+  <si>
+    <t>Математическое обеспечение и администрирование информационных систем$
+Прикладная математика и информатика</t>
+  </si>
+  <si>
+    <t>Выпускники смогут продолжить обучение в магистратуре по направлениям 09.04.04 Программная инженерия и 01.04.02 Прикладная математика и информатика</t>
+  </si>
+  <si>
+    <t>Математический анализ$
+Алгебра и аналитическая геометрия$
+Программирование и численные методы$
+Механика$
+Молекулярная физика$
+Введение в специальность$
+Векторный и тензорный анализ$
+Дифференциальные и интегральные уравнения, вариационное исчисление$
+Теория вероятностей и математическая статистика$
+Оптика$
+Электричество и магнетизм$
+Методы математической физики$
+Теоретическая механика$
+Методика преподавания физики$
+Введение в астрофизику$
+Физические методы исследования вещества</t>
+  </si>
+  <si>
+    <t>Электроника и наноэлектроника$</t>
+  </si>
+  <si>
+    <t>В процессе обучения, начиная с 3 курса, студенты прикрепляются к ведущим научным группам  в  порядке очередности в зависимости от личных достижений и предпочтений студентов. Таким образом начинается научно-исследовательская работа, результатом которой станет подготовка докладов на конференциях различного уровня, возможность участвовать в конкурсах на индивидуальные стипендии и проекты, такие как travel-гранты, и выпускная квалификационная работа. К обучению студентов привлекаются сотрудники ведущих институтов РАН, обеспечивая тесную связь учебного процесса с современными научными достижениями, что является залогом успеха подготовки кадров высшей квалификации.</t>
+  </si>
+  <si>
+    <t>Высшая математика$
+Прикладная математика$
+Физика$
+Информатика$
+Общая и неорганическая химия$
+Аналитическая химия и физико-химические методы анализа$
+Органическая химия$
+Физическая и коллоидная химия$
+Инженерная графика$
+Процессы и аппараты химической технологии$
+Теоретическая и прикладная механика$
+Гидравлика и теплотехника$
+Метрология, стандартизация, сертификация, основы квалиметрии и управления качеством$
+Материаловедение$
+Электротехника и промышленная электроника$
+Основы экономики и управления производством</t>
+  </si>
+  <si>
+    <t>Химия$
+Нефтегазовое дело</t>
+  </si>
+  <si>
+    <t>За время обучения вы научитесь использовать системный подход для описания основных процессов и технологий химических и нефтеперерабатывающих производств, освоите компьютерные технологии моделирования и проектирования химико-технологических процессов и систем, анализа и синтеза систем управления химико-технологическими процессами на современном программном обеспечении для моделирования технологических процессов на промышленных предприятиях$
+Лаборатории, оснащенные современными приборами и оборудованием$ 
+Возможность сотрудничества с ведущими учеными Дальневосточного отделения Российской академии наук и сотрудниками химических и нефтеперерабатывающих производств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неорганическая химия$
+Аналитическая химия$
+Физическая химия$
+Органическая химия$
+Химические основы биологических процессов$
+Высокомолекулярные соединения$
+Коллоидная химия$
+Кристаллохимия$
+Высшая математика$
+Физика$
+Физические методы исследования$
+Строение вещества с основами квантовой химии и квантовой механики
+</t>
+  </si>
+  <si>
+    <t>Химическая технология</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть разные олимпиады по предметам химии – о них можно узнать от преподавателей кафедры. Также существуют олимпиады WorldSkills и "Я профессионал", в которых наши студенты принимают активное участие. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зоология$
+Ботаника$
+Общая экология$
+Природопользование$
+Экологический мониторинг$
+Экология как биологическая наука о живых системах$
+Место и роль живых организмов в биосфере$
+Представления о структуре и функциях биосферы$
+Формирование базового экологического мышления$
+Существующие экологические проблемы и путей их решения$
+Источники загрязнения и их воздействие на окружающую среду$
+Методы, используемые при проведении экологического мониторинга
+</t>
+  </si>
+  <si>
+    <t>География$
+Биология$</t>
+  </si>
+  <si>
+    <t>Введение в специальность$
+Математический анализ$
+Дифференциальные уравнения$
+Механика и молекулярная физика$
+Электричество и магнетизм$
+Оптика и атомная физика$
+Физика конденсированного состояния$
+Наноэлектроника$
+Теоретические основы электротехники$
+Методы математической физики$
+Основы технологии и расчета электронной компонентной базы</t>
+  </si>
+  <si>
+    <t>Физика$
+Инфокоммуникационные технологии и системы связи$
+Мехатроника и робототехника</t>
+  </si>
+  <si>
+    <t>Вы сможете участвовать в проектно-конструкторской и научно-исследовательской деятельности на современном оборудовании, в том числе на базе партнерских институтов Дальневосточного отделения Российской академии наук</t>
+  </si>
+  <si>
+    <t>Дизайн архитектурной среды$ Строительство$  Строительство уникальных зданий и сооружений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технология транспортных процессов$ Кораблестроение, океанотехника и системотехника объектов морской инфраструктуры$ Мехатроника и робототехника  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Машиностроение$   Технология транспортных процессов$ Кораблестроение, океанотехника и системотехника объектов морской инфраструктуры   </t>
+  </si>
+  <si>
+    <t>Машиностроение$   Мехатроника и робототехника$    Кораблестроение, океанотехника и системотехника объектов морской инфраструктуры</t>
+  </si>
+  <si>
+    <t>Фармация (специалитет)</t>
+  </si>
+  <si>
+    <t>Лечебное дело (специалитет)</t>
+  </si>
+  <si>
+    <t>Медицинская биофизика (специалитет)</t>
+  </si>
+  <si>
+    <t>Медицинская биохимия (специалитет)</t>
+  </si>
+  <si>
+    <t>Экономическая безопасность (специалитет)</t>
+  </si>
+  <si>
+    <t>Перевод и переводоведение  (специалитет)</t>
+  </si>
+  <si>
+    <t>Компьютерная безопасность  (специалитет)</t>
+  </si>
+  <si>
+    <t>Строительство уникальных зданий и сооружений  (специалитет)</t>
+  </si>
 </sst>
 </file>
 
@@ -1821,12 +3216,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1862,13 +3273,70 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1880,40 +3348,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2194,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,7 +3722,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -2222,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -2231,22 +3743,22 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>4</v>
@@ -2255,25 +3767,25 @@
         <v>5</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -2290,37 +3802,37 @@
         <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N2">
         <v>103</v>
@@ -2329,21 +3841,21 @@
         <v>210000</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q2" t="s">
-        <v>289</v>
-      </c>
-      <c r="R2" t="s">
-        <v>290</v>
+        <v>281</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="S2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,37 +3863,37 @@
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="N3">
         <v>39</v>
@@ -2390,21 +3902,21 @@
         <v>210000</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="S3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,37 +3924,37 @@
         <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N4">
         <v>25</v>
@@ -2451,21 +3963,21 @@
         <v>210000</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Q4" t="s">
-        <v>313</v>
-      </c>
-      <c r="R4" t="s">
-        <v>314</v>
+        <v>305</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="S4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,37 +3985,37 @@
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N5">
         <v>40</v>
@@ -2512,21 +4024,21 @@
         <v>210000</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="Q5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="S5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,37 +4046,37 @@
         <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>143</v>
+        <v>592</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N6">
         <v>36</v>
@@ -2573,16 +4085,16 @@
         <v>210000</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="R6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="S6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -2593,37 +4105,37 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>101</v>
+      <c r="D7" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="N7">
         <v>20</v>
@@ -2632,81 +4144,79 @@
         <v>210000</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="R7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="S7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O8">
         <v>210000</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="S8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="V8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -2720,60 +4230,62 @@
     </row>
     <row r="9" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="L9" s="6"/>
+        <v>347</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O9">
         <v>210000</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="Q9" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="S9" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="V9" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2781,37 +4293,37 @@
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10">
@@ -2821,19 +4333,19 @@
         <v>210000</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="Q10" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="S10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="V10" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,22 +4356,32 @@
         <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10">
         <v>38061</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="19" t="s">
+        <v>404</v>
+      </c>
       <c r="F11" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11">
@@ -2869,7 +4391,13 @@
         <v>210000</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2885,17 +4413,27 @@
       <c r="D12" s="8">
         <v>36957</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="19" t="s">
+        <v>405</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="H12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12">
@@ -2905,28 +4443,33 @@
         <v>210000</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="8">
-        <v>37687</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>36955</v>
+      </c>
       <c r="F13" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2941,136 +4484,184 @@
         <v>210000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="10">
-        <v>37336</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8">
+        <v>37687</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" t="s">
-        <v>13</v>
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>210000</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" s="10">
-        <v>38438</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>37336</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="F15" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15">
-        <v>25</v>
-      </c>
-      <c r="O15">
-        <v>210000</v>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>239</v>
+        <v>230</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="10">
-        <v>37341</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>38438</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>408</v>
+      </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="O16">
-        <v>285000</v>
+        <v>210000</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>246</v>
+        <v>231</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D17" s="10">
-        <v>36965</v>
-      </c>
-      <c r="E17" s="10"/>
+        <v>37326</v>
+      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3079,291 +4670,413 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O17">
         <v>210000</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D18" s="10">
-        <v>38791</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>37341</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="O18">
-        <v>210000</v>
+        <v>285000</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D19" s="10">
-        <v>36971</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>36965</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O19">
         <v>210000</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D20" s="10">
-        <v>37032</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>38791</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="F20" s="6" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" t="s">
-        <v>13</v>
+      <c r="N20">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <v>210000</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>256</v>
+        <v>243</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="8">
-        <v>36958</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="10">
+        <v>36971</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="F21" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O21">
         <v>210000</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>265</v>
+        <v>244</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="8">
-        <v>37019</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="10">
+        <v>37032</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="F22" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22">
-        <v>45</v>
-      </c>
-      <c r="O22">
-        <v>210000</v>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>266</v>
+        <v>248</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="10">
-        <v>36973</v>
-      </c>
-      <c r="E23" s="10"/>
+      <c r="C23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8">
+        <v>36958</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>414</v>
+      </c>
       <c r="F23" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O23">
         <v>210000</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="10">
-        <v>38057</v>
-      </c>
-      <c r="E24" s="10"/>
+      <c r="C24" t="s">
+        <v>594</v>
+      </c>
+      <c r="D24" s="8">
+        <v>37019</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" t="s">
-        <v>13</v>
+      <c r="N24">
+        <v>45</v>
+      </c>
+      <c r="O24">
+        <v>210000</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>277</v>
+        <v>258</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10">
-        <v>37328</v>
-      </c>
-      <c r="E25" s="10"/>
+        <v>36973</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="F25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25">
@@ -3373,63 +5086,86 @@
         <v>210000</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>278</v>
+        <v>260</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>54</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="10">
+        <v>37328</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="F26" s="6" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>210000</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -3448,23 +5184,23 @@
     </row>
     <row r="28" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>211</v>
+        <v>588</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -3483,281 +5219,339 @@
     </row>
     <row r="29" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>198</v>
+        <v>589</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>199</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>201</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N29" s="6">
-        <v>17</v>
-      </c>
-      <c r="O29" s="6">
-        <v>285000</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>209</v>
-      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
     </row>
     <row r="30" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N30" s="6">
+        <v>17</v>
+      </c>
+      <c r="O30" s="6">
+        <v>285000</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="31" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>183</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="6">
-        <v>20</v>
-      </c>
-      <c r="O31" s="6">
-        <v>210000</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>197</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="8">
-        <v>36956</v>
-      </c>
-      <c r="E32" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="F32" s="6" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32">
-        <v>75</v>
-      </c>
-      <c r="O32">
+        <v>181</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" s="6">
+        <v>20</v>
+      </c>
+      <c r="O32" s="6">
         <v>210000</v>
       </c>
-      <c r="P32" s="6" t="s">
-        <v>232</v>
+      <c r="Q32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>228</v>
+        <v>25</v>
+      </c>
+      <c r="D33" s="8">
+        <v>36956</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>493</v>
       </c>
       <c r="N33">
-        <v>20</v>
-      </c>
-      <c r="P33" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="O33">
+        <v>210000</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="R33" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="S33" s="25"/>
     </row>
     <row r="34" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8">
-        <v>36955</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>497</v>
+      </c>
       <c r="N34">
         <v>20</v>
       </c>
-      <c r="O34">
-        <v>210000</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>233</v>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="R34" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D35" s="10">
-        <v>37326</v>
-      </c>
-      <c r="E35" s="10"/>
+        <v>36960</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>475</v>
+      </c>
       <c r="F35" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="H35" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>502</v>
+      </c>
       <c r="N35">
         <v>50</v>
       </c>
@@ -3765,35 +5559,56 @@
         <v>210000</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="S35" s="25" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D36" s="10">
-        <v>36960</v>
-      </c>
-      <c r="E36" s="10"/>
+        <v>37324</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>476</v>
+      </c>
       <c r="F36" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>506</v>
+      </c>
       <c r="N36">
         <v>50</v>
       </c>
@@ -3801,329 +5616,493 @@
         <v>210000</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>241</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="R36" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="10">
-        <v>37324</v>
-      </c>
-      <c r="E37" s="10"/>
+        <v>593</v>
+      </c>
+      <c r="D37" s="8">
+        <v>37021</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>477</v>
+      </c>
       <c r="F37" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="M37" s="25"/>
       <c r="N37">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O37">
         <v>210000</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="R37" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="S37" s="25" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="8">
+        <v>36952</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="M38" s="25"/>
+      <c r="N38">
         <v>50</v>
       </c>
-      <c r="D38" s="8">
-        <v>37021</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38">
-        <v>70</v>
-      </c>
-      <c r="O38">
-        <v>210000</v>
+      <c r="O38" s="4">
+        <v>190000</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="R38" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="S38" s="26" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>14</v>
+      <c r="C39" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D39" s="8">
-        <v>36952</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>37682</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>479</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="H39" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="M39" s="25"/>
       <c r="N39">
-        <v>50</v>
-      </c>
-      <c r="O39" s="4">
-        <v>190000</v>
+        <v>25</v>
+      </c>
+      <c r="O39" t="s">
+        <v>13</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>247</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="R39" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="S39" s="25"/>
     </row>
     <row r="40" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="8">
-        <v>37682</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="10">
+        <v>37689</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="M40" s="25"/>
       <c r="N40">
-        <v>25</v>
-      </c>
-      <c r="O40" t="s">
-        <v>13</v>
+        <v>150</v>
+      </c>
+      <c r="O40">
+        <v>210000</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="R40" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="S40" s="25" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="10">
-        <v>37689</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="6" t="s">
-        <v>44</v>
+      <c r="C41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="8">
+        <v>38047</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="M41" s="25"/>
       <c r="N41">
-        <v>150</v>
-      </c>
-      <c r="O41">
-        <v>210000</v>
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>13</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="R41" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="S41" s="25" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="8">
-        <v>38047</v>
-      </c>
-      <c r="E42" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>482</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42">
-        <v>25</v>
-      </c>
-      <c r="O42" t="s">
-        <v>13</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>258</v>
-      </c>
+      <c r="H42" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="M42" s="27"/>
+      <c r="N42" s="4">
+        <v>75</v>
+      </c>
+      <c r="O42" s="4">
+        <v>190000</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q42" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="R42" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="S42" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="10">
+        <v>38055</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="4">
-        <v>75</v>
-      </c>
-      <c r="O43" s="4">
-        <v>190000</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="M43" s="25"/>
+      <c r="N43">
+        <v>124</v>
+      </c>
+      <c r="O43">
+        <v>210000</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="R43" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="S43" s="25" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="44" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="10">
-        <v>38055</v>
-      </c>
-      <c r="E44" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="D44" s="8">
+        <v>37318</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>484</v>
+      </c>
       <c r="F44" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="M44" s="25"/>
       <c r="N44">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="O44">
         <v>210000</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="R44" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="S44" s="25" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="8">
-        <v>37318</v>
-      </c>
-      <c r="E45" s="8"/>
+      <c r="C45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="10">
+        <v>36968</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>485</v>
+      </c>
       <c r="F45" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="M45" s="25"/>
       <c r="N45">
         <v>50</v>
       </c>
@@ -4131,35 +6110,56 @@
         <v>210000</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
+      </c>
+      <c r="Q45" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="R45" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="S45" s="25" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="10">
-        <v>36968</v>
-      </c>
-      <c r="E46" s="10"/>
+      <c r="C46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="8">
+        <v>36954</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>486</v>
+      </c>
       <c r="F46" s="6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="H46" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>534</v>
+      </c>
       <c r="N46">
         <v>50</v>
       </c>
@@ -4167,100 +6167,145 @@
         <v>210000</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="R46" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="S46" s="25" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>19</v>
+      <c r="C47" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D47" s="8">
-        <v>36954</v>
-      </c>
-      <c r="E47" s="8"/>
+        <v>38781</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>487</v>
+      </c>
       <c r="F47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="K47" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="N47">
         <v>20</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47">
-        <v>50</v>
       </c>
       <c r="O47">
         <v>210000</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>274</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="Q47" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="R47" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="S47" s="25"/>
     </row>
     <row r="48" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="8">
-        <v>38781</v>
-      </c>
-      <c r="E48" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="D48" s="10">
+        <v>38057</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>488</v>
+      </c>
       <c r="F48" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48">
-        <v>20</v>
-      </c>
-      <c r="O48">
-        <v>210000</v>
+        <v>39</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M48" s="25"/>
+      <c r="N48" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" t="s">
+        <v>13</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="R48" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="S48" s="25" t="s">
+        <v>582</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -4275,28 +6320,28 @@
         <v>285000</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -4311,28 +6356,28 @@
         <v>210000</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -4347,28 +6392,28 @@
         <v>190000</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -4383,28 +6428,28 @@
         <v>210000</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -4419,28 +6464,28 @@
         <v>210000</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -4455,28 +6500,28 @@
         <v>210000</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -4491,28 +6536,28 @@
         <v>190000</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -4527,28 +6572,28 @@
         <v>190000</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -4563,28 +6608,28 @@
         <v>285000</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -4599,35 +6644,49 @@
         <v>190000</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
+      <c r="H59" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>395</v>
+      </c>
       <c r="N59">
         <v>20</v>
       </c>
@@ -4635,35 +6694,41 @@
         <v>13</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>253</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="R59" s="15"/>
     </row>
-    <row r="60" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
       <c r="N60">
         <v>25</v>
       </c>
@@ -4671,35 +6736,37 @@
         <v>13</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
       <c r="N61">
         <v>20</v>
       </c>
@@ -4707,35 +6774,37 @@
         <v>13</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
       <c r="N62">
         <v>20</v>
       </c>
@@ -4743,35 +6812,41 @@
         <v>13</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="M63" s="15"/>
       <c r="N63">
         <v>20</v>
       </c>
@@ -4779,35 +6854,37 @@
         <v>13</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
       <c r="N64">
         <v>25</v>
       </c>
@@ -4815,28 +6892,28 @@
         <v>13</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -4851,28 +6928,28 @@
         <v>190000</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -4887,28 +6964,28 @@
         <v>210000</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4923,28 +7000,28 @@
         <v>210000</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -4959,28 +7036,28 @@
         <v>210000</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -4995,28 +7072,28 @@
         <v>210000</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>49</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>229</v>
+        <v>591</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -5028,38 +7105,52 @@
         <v>5</v>
       </c>
       <c r="O70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
+      <c r="H71" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N71">
         <v>81</v>
       </c>
@@ -5067,15 +7158,28 @@
         <v>210000</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>386</v>
+      </c>
+      <c r="S71" t="s">
+        <v>387</v>
+      </c>
+      <c r="V71" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:V71" xr:uid="{A604074C-BDAC-46B3-A840-0BA46D3C42C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V71">
     <sortCondition ref="B2:B71"/>
     <sortCondition ref="C2:C71"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
